--- a/plot/4_winsT_30_fcType_4.xlsx
+++ b/plot/4_winsT_30_fcType_4.xlsx
@@ -502,7 +502,7 @@
         <v>0.2755739601035256</v>
       </c>
       <c r="L2">
-        <v>1.063498553154298</v>
+        <v>1.063498553154297</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -584,7 +584,7 @@
         <v>0.2905323411840653</v>
       </c>
       <c r="L4">
-        <v>1.672929266018153</v>
+        <v>1.672929266018152</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>0.4748895776907577</v>
       </c>
       <c r="L6">
-        <v>2.309990132321363</v>
+        <v>2.309990132321364</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>2.325091682403028</v>
       </c>
       <c r="M8">
-        <v>0.9273704166738019</v>
+        <v>0.9273704166738023</v>
       </c>
       <c r="N8">
         <v>0.5</v>
@@ -807,7 +807,7 @@
         <v>1.994152649520411</v>
       </c>
       <c r="M9">
-        <v>0.7122650666154928</v>
+        <v>0.7122650666154929</v>
       </c>
       <c r="N9">
         <v>0.5</v>
@@ -848,7 +848,7 @@
         <v>0.3109119179401328</v>
       </c>
       <c r="L10">
-        <v>1.654690529673203</v>
+        <v>1.654690529673202</v>
       </c>
       <c r="M10">
         <v>0.4304795240968057</v>
@@ -892,10 +892,10 @@
         <v>0.4490242023941949</v>
       </c>
       <c r="L11">
-        <v>1.561321164349115</v>
+        <v>1.561321164349114</v>
       </c>
       <c r="M11">
-        <v>0.3624921332891619</v>
+        <v>0.362492133289162</v>
       </c>
       <c r="N11">
         <v>0.5</v>
@@ -936,7 +936,7 @@
         <v>0.4815779854980445</v>
       </c>
       <c r="L12">
-        <v>1.329094232958292</v>
+        <v>1.329094232958293</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0.4777492002110788</v>
       </c>
       <c r="L14">
-        <v>0.9970981524137943</v>
+        <v>0.9970981524137944</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0.5155731092170954</v>
       </c>
       <c r="L15">
-        <v>0.9336976550881098</v>
+        <v>0.9336976550881091</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>1.082647777997503</v>
       </c>
       <c r="M16">
-        <v>0.09909301346791903</v>
+        <v>0.09909301346791914</v>
       </c>
       <c r="N16">
         <v>0.5</v>
@@ -1159,7 +1159,7 @@
         <v>1.295187921305003</v>
       </c>
       <c r="M17">
-        <v>0.2598043825978535</v>
+        <v>0.2598043825978537</v>
       </c>
       <c r="N17">
         <v>0.5</v>
@@ -1244,10 +1244,10 @@
         <v>0.4971740671819921</v>
       </c>
       <c r="L19">
-        <v>1.783317309545612</v>
+        <v>1.783317309545611</v>
       </c>
       <c r="M19">
-        <v>0.753395856771649</v>
+        <v>0.7533958567716487</v>
       </c>
       <c r="N19">
         <v>0.5</v>
@@ -1335,7 +1335,7 @@
         <v>1.808729154902986</v>
       </c>
       <c r="M21">
-        <v>0.7759296798826417</v>
+        <v>0.7759296798826415</v>
       </c>
       <c r="N21">
         <v>0.5</v>
@@ -1379,7 +1379,7 @@
         <v>1.652453775552815</v>
       </c>
       <c r="M22">
-        <v>0.6373532913773473</v>
+        <v>0.6373532913773471</v>
       </c>
       <c r="N22">
         <v>0.5</v>
@@ -1420,10 +1420,10 @@
         <v>0.3226705957916667</v>
       </c>
       <c r="L23">
-        <v>1.444017031569467</v>
+        <v>1.444017031569466</v>
       </c>
       <c r="M23">
-        <v>0.4525230811860615</v>
+        <v>0.4525230811860612</v>
       </c>
       <c r="N23">
         <v>0.5</v>
@@ -1467,7 +1467,7 @@
         <v>1.322118906603092</v>
       </c>
       <c r="M24">
-        <v>0.3444305461133651</v>
+        <v>0.3444305461133654</v>
       </c>
       <c r="N24">
         <v>0.5</v>
@@ -1508,10 +1508,10 @@
         <v>0.2973757446997718</v>
       </c>
       <c r="L25">
-        <v>1.220665275557088</v>
+        <v>1.220665275557089</v>
       </c>
       <c r="M25">
-        <v>0.1410111672112442</v>
+        <v>0.1410111672112449</v>
       </c>
       <c r="N25">
         <v>0.5</v>
@@ -1596,10 +1596,10 @@
         <v>0.312762987426103</v>
       </c>
       <c r="L27">
-        <v>1.523927606930673</v>
+        <v>1.523927606930672</v>
       </c>
       <c r="M27">
-        <v>0.4555872761581357</v>
+        <v>0.4555872761581343</v>
       </c>
       <c r="N27">
         <v>0.5</v>
@@ -1640,7 +1640,7 @@
         <v>0.3245531103487878</v>
       </c>
       <c r="L28">
-        <v>1.988463583700239</v>
+        <v>1.988463583700238</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>0.3387891620180922</v>
       </c>
       <c r="L30">
-        <v>2.245260357302499</v>
+        <v>2.2452603573025</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>0.3533888312469317</v>
       </c>
       <c r="L31">
-        <v>2.368826540449852</v>
+        <v>2.368826540449851</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0.394850245522562</v>
       </c>
       <c r="L33">
-        <v>2.916700677289402</v>
+        <v>2.916700677289403</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>0.4195528966810326</v>
       </c>
       <c r="L34">
-        <v>3.258828572529687</v>
+        <v>3.258828572529686</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -1948,10 +1948,10 @@
         <v>0.4047213809881053</v>
       </c>
       <c r="L35">
-        <v>3.133815635409297</v>
+        <v>3.133815635409299</v>
       </c>
       <c r="M35">
-        <v>0.942777857417049</v>
+        <v>0.94277785741705</v>
       </c>
       <c r="N35">
         <v>0.5</v>
@@ -1992,10 +1992,10 @@
         <v>0.3910510696664441</v>
       </c>
       <c r="L36">
-        <v>3.003762383978397</v>
+        <v>3.003762383978395</v>
       </c>
       <c r="M36">
-        <v>0.8529793955914809</v>
+        <v>0.8529793955914807</v>
       </c>
       <c r="N36">
         <v>0.5</v>
@@ -2083,7 +2083,7 @@
         <v>2.409487387884421</v>
       </c>
       <c r="M38">
-        <v>0.3901471828168939</v>
+        <v>0.3901471828168941</v>
       </c>
       <c r="N38">
         <v>0.5</v>
@@ -2168,10 +2168,10 @@
         <v>0.06193979716726336</v>
       </c>
       <c r="L40">
-        <v>1.712156861546382</v>
+        <v>1.71215686154638</v>
       </c>
       <c r="M40">
-        <v>0.04135173920126383</v>
+        <v>0.04135173920126303</v>
       </c>
       <c r="N40">
         <v>0.5</v>
@@ -2300,10 +2300,10 @@
         <v>-0.04994137054884555</v>
       </c>
       <c r="L43">
-        <v>1.585006950952595</v>
+        <v>1.585006950952594</v>
       </c>
       <c r="M43">
-        <v>0.1240916208505163</v>
+        <v>0.1240916208505162</v>
       </c>
       <c r="N43">
         <v>0.5</v>
@@ -2388,10 +2388,10 @@
         <v>-0.1042376293919066</v>
       </c>
       <c r="L45">
-        <v>1.695204742956379</v>
+        <v>1.69520474295638</v>
       </c>
       <c r="M45">
-        <v>0.2097551965504109</v>
+        <v>0.2097551965504117</v>
       </c>
       <c r="N45">
         <v>0.5</v>
@@ -2435,7 +2435,7 @@
         <v>1.984888659096101</v>
       </c>
       <c r="M46">
-        <v>0.6000441350557982</v>
+        <v>0.6000441350557987</v>
       </c>
       <c r="N46">
         <v>0.5</v>
@@ -2479,7 +2479,7 @@
         <v>1.997805081090685</v>
       </c>
       <c r="M47">
-        <v>0.6122109136647927</v>
+        <v>0.6122109136647936</v>
       </c>
       <c r="N47">
         <v>0.5</v>
@@ -2523,7 +2523,7 @@
         <v>1.795830577900437</v>
       </c>
       <c r="M48">
-        <v>0.689237317752962</v>
+        <v>0.6892373177529622</v>
       </c>
       <c r="N48">
         <v>0.5</v>
@@ -2564,10 +2564,10 @@
         <v>-0.06705013347027501</v>
       </c>
       <c r="L49">
-        <v>1.765197790044747</v>
+        <v>1.765197790044748</v>
       </c>
       <c r="M49">
-        <v>0.642104995759964</v>
+        <v>0.6421049957599645</v>
       </c>
       <c r="N49">
         <v>0.5</v>
@@ -2611,7 +2611,7 @@
         <v>1.493145329219224</v>
       </c>
       <c r="M50">
-        <v>0.2235187331245693</v>
+        <v>0.2235187331245696</v>
       </c>
       <c r="N50">
         <v>0.5</v>
@@ -2655,7 +2655,7 @@
         <v>1.637002208332003</v>
       </c>
       <c r="M51">
-        <v>0.4448602832046057</v>
+        <v>0.4448602832046058</v>
       </c>
       <c r="N51">
         <v>0.5</v>
@@ -2699,7 +2699,7 @@
         <v>1.78607562872464</v>
       </c>
       <c r="M52">
-        <v>0.5804510829705041</v>
+        <v>0.5804510829705035</v>
       </c>
       <c r="N52">
         <v>0.5</v>
@@ -2784,10 +2784,10 @@
         <v>0.02331420241896205</v>
       </c>
       <c r="L54">
-        <v>1.965256344772278</v>
+        <v>1.965256344772279</v>
       </c>
       <c r="M54">
-        <v>0.8979735080016581</v>
+        <v>0.8979735080016589</v>
       </c>
       <c r="N54">
         <v>0.5</v>
@@ -2872,7 +2872,7 @@
         <v>0.08431349840406087</v>
       </c>
       <c r="L56">
-        <v>2.287551280160714</v>
+        <v>2.287551280160715</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3004,10 +3004,10 @@
         <v>-0.02509201581364011</v>
       </c>
       <c r="L59">
-        <v>1.691158260503912</v>
+        <v>1.691158260503911</v>
       </c>
       <c r="M59">
-        <v>0.2416284096591222</v>
+        <v>0.2416284096591216</v>
       </c>
       <c r="N59">
         <v>0.5</v>
@@ -3048,10 +3048,10 @@
         <v>-0.0203978793925533</v>
       </c>
       <c r="L60">
-        <v>1.736378975806819</v>
+        <v>1.736378975806818</v>
       </c>
       <c r="M60">
-        <v>0.1470860994423109</v>
+        <v>0.1470860994423103</v>
       </c>
       <c r="N60">
         <v>0.5</v>
@@ -3092,10 +3092,10 @@
         <v>-0.02119509018852345</v>
       </c>
       <c r="L61">
-        <v>1.801520717208372</v>
+        <v>1.801520717208371</v>
       </c>
       <c r="M61">
-        <v>0.177579875298505</v>
+        <v>0.1775798752985053</v>
       </c>
       <c r="N61">
         <v>0.5</v>
@@ -3136,10 +3136,10 @@
         <v>-0.02451552333172525</v>
       </c>
       <c r="L62">
-        <v>1.821516671270088</v>
+        <v>1.821516671270087</v>
       </c>
       <c r="M62">
-        <v>0.2097545761414119</v>
+        <v>0.2097545761414114</v>
       </c>
       <c r="N62">
         <v>0.5</v>
@@ -3180,10 +3180,10 @@
         <v>-0.03979290171405855</v>
       </c>
       <c r="L63">
-        <v>1.785896891337259</v>
+        <v>1.785896891337258</v>
       </c>
       <c r="M63">
-        <v>0.1524401934472067</v>
+        <v>0.1524401934472066</v>
       </c>
       <c r="N63">
         <v>0.5</v>
@@ -3227,7 +3227,7 @@
         <v>1.71754882571227</v>
       </c>
       <c r="M64">
-        <v>0.04246401737238583</v>
+        <v>0.04246401737238687</v>
       </c>
       <c r="N64">
         <v>0.5</v>
@@ -3312,7 +3312,7 @@
         <v>-0.1305284031068531</v>
       </c>
       <c r="L66">
-        <v>0.879520684950909</v>
+        <v>0.8795206849509101</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0.5693000379823751</v>
       </c>
       <c r="L67">
-        <v>2.375168045941789</v>
+        <v>2.37516804594179</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>0.4898988462344363</v>
       </c>
       <c r="L68">
-        <v>3.132741371410221</v>
+        <v>3.13274137141022</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -3444,7 +3444,7 @@
         <v>0.5944381166746362</v>
       </c>
       <c r="L69">
-        <v>4.022824702113613</v>
+        <v>4.022824702113614</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -3491,7 +3491,7 @@
         <v>3.641532848929104</v>
       </c>
       <c r="M70">
-        <v>0.8786971126233338</v>
+        <v>0.8786971126233336</v>
       </c>
       <c r="N70">
         <v>0.5</v>
@@ -3529,13 +3529,13 @@
         <v>0.02854978985106314</v>
       </c>
       <c r="K71">
-        <v>0.6041195340707922</v>
+        <v>0.6041195340707921</v>
       </c>
       <c r="L71">
         <v>3.762320425708656</v>
       </c>
       <c r="M71">
-        <v>0.9171240595937961</v>
+        <v>0.9171240595937958</v>
       </c>
       <c r="N71">
         <v>0.5</v>
@@ -3576,10 +3576,10 @@
         <v>0.6340086579674754</v>
       </c>
       <c r="L72">
-        <v>3.881907761843212</v>
+        <v>3.881907761843211</v>
       </c>
       <c r="M72">
-        <v>0.9551691661064334</v>
+        <v>0.955169166106433</v>
       </c>
       <c r="N72">
         <v>0.5</v>
@@ -3620,10 +3620,10 @@
         <v>0.6340702567853375</v>
       </c>
       <c r="L73">
-        <v>3.701310163737328</v>
+        <v>3.701310163737329</v>
       </c>
       <c r="M73">
-        <v>0.897714463309693</v>
+        <v>0.8977144633096931</v>
       </c>
       <c r="N73">
         <v>0.5</v>
@@ -3705,13 +3705,13 @@
         <v>0.04539861455135011</v>
       </c>
       <c r="K75">
-        <v>0.3209048426872673</v>
+        <v>0.3209048426872672</v>
       </c>
       <c r="L75">
         <v>2.619140431219692</v>
       </c>
       <c r="M75">
-        <v>0.5534366821568365</v>
+        <v>0.5534366821568363</v>
       </c>
       <c r="N75">
         <v>0.5</v>
@@ -3752,10 +3752,10 @@
         <v>0.380129935974964</v>
       </c>
       <c r="L76">
-        <v>2.54683913551801</v>
+        <v>2.546839135518009</v>
       </c>
       <c r="M76">
-        <v>0.1041910576048543</v>
+        <v>0.1041910576048537</v>
       </c>
       <c r="N76">
         <v>0.5</v>
@@ -3799,7 +3799,7 @@
         <v>2.480484650852357</v>
       </c>
       <c r="M77">
-        <v>0.03616277817054297</v>
+        <v>0.03616277817054241</v>
       </c>
       <c r="N77">
         <v>0.5</v>
@@ -3840,10 +3840,10 @@
         <v>0.3815332320293152</v>
       </c>
       <c r="L78">
-        <v>2.586714257477611</v>
+        <v>2.586714257477612</v>
       </c>
       <c r="M78">
-        <v>0.1025476514946801</v>
+        <v>0.1025476514946798</v>
       </c>
       <c r="N78">
         <v>0.5</v>
@@ -3884,10 +3884,10 @@
         <v>0.3744346251546014</v>
       </c>
       <c r="L79">
-        <v>2.435989696002904</v>
+        <v>2.435989696002905</v>
       </c>
       <c r="M79">
-        <v>0.009164047502176972</v>
+        <v>0.009164047502176984</v>
       </c>
       <c r="N79">
         <v>0.5</v>
@@ -3928,10 +3928,10 @@
         <v>0.400297734403827</v>
       </c>
       <c r="L80">
-        <v>2.756007700655412</v>
+        <v>2.756007700655413</v>
       </c>
       <c r="M80">
-        <v>0.2284609440189543</v>
+        <v>0.2284609440189542</v>
       </c>
       <c r="N80">
         <v>0.5</v>
@@ -3975,7 +3975,7 @@
         <v>2.672498003021365</v>
       </c>
       <c r="M81">
-        <v>0.1712347340746524</v>
+        <v>0.171234734074652</v>
       </c>
       <c r="N81">
         <v>0.5</v>
@@ -4019,7 +4019,7 @@
         <v>2.454345521833619</v>
       </c>
       <c r="M82">
-        <v>0.02481348272940516</v>
+        <v>0.02481348272940482</v>
       </c>
       <c r="N82">
         <v>0.5</v>
@@ -4107,7 +4107,7 @@
         <v>2.366683157974896</v>
       </c>
       <c r="M84">
-        <v>0.1587775896185894</v>
+        <v>0.1587775896185883</v>
       </c>
       <c r="N84">
         <v>0.5</v>
@@ -4148,7 +4148,7 @@
         <v>0.4415577155055788</v>
       </c>
       <c r="L85">
-        <v>2.26768796305727</v>
+        <v>2.267687963057271</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0.4129342553671795</v>
       </c>
       <c r="L86">
-        <v>2.025311018495031</v>
+        <v>2.02531101849503</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0.3212978341263512</v>
       </c>
       <c r="L87">
-        <v>1.726356256409241</v>
+        <v>1.72635625640924</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         <v>0.3605428434301293</v>
       </c>
       <c r="L88">
-        <v>2.018037136081914</v>
+        <v>2.018037136081913</v>
       </c>
       <c r="M88">
-        <v>0.2832811834554537</v>
+        <v>0.2832811834554539</v>
       </c>
       <c r="N88">
         <v>0.5</v>
@@ -4324,7 +4324,7 @@
         <v>0.4815564958608891</v>
       </c>
       <c r="L89">
-        <v>2.807078099160472</v>
+        <v>2.807078099160473</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -4368,7 +4368,7 @@
         <v>0.4786229398679252</v>
       </c>
       <c r="L90">
-        <v>2.789451657998584</v>
+        <v>2.789451657998585</v>
       </c>
       <c r="M90">
         <v>0.9836901222269964</v>
@@ -4412,7 +4412,7 @@
         <v>0.4889861244314381</v>
       </c>
       <c r="L91">
-        <v>2.555693313863399</v>
+        <v>2.5556933138634</v>
       </c>
       <c r="M91">
         <v>0.7673917789455299</v>
@@ -4459,7 +4459,7 @@
         <v>2.439325284167188</v>
       </c>
       <c r="M92">
-        <v>0.6597155711620639</v>
+        <v>0.6597155711620637</v>
       </c>
       <c r="N92">
         <v>0.5</v>
@@ -4500,10 +4500,10 @@
         <v>0.5095998510731472</v>
       </c>
       <c r="L93">
-        <v>2.387678806938375</v>
+        <v>2.387678806938377</v>
       </c>
       <c r="M93">
-        <v>0.611926699700621</v>
+        <v>0.6119266997006225</v>
       </c>
       <c r="N93">
         <v>0.5</v>
@@ -4547,7 +4547,7 @@
         <v>2.25042043533404</v>
       </c>
       <c r="M94">
-        <v>0.4849205023844715</v>
+        <v>0.4849205023844713</v>
       </c>
       <c r="N94">
         <v>0.5</v>
@@ -4591,7 +4591,7 @@
         <v>2.148004483718383</v>
       </c>
       <c r="M95">
-        <v>0.3901542567472655</v>
+        <v>0.3901542567472658</v>
       </c>
       <c r="N95">
         <v>0.5</v>
@@ -4635,7 +4635,7 @@
         <v>1.988693333415225</v>
       </c>
       <c r="M96">
-        <v>0.2427424584462392</v>
+        <v>0.2427424584462395</v>
       </c>
       <c r="N96">
         <v>0.5</v>
@@ -4679,7 +4679,7 @@
         <v>2.588488159915487</v>
       </c>
       <c r="M97">
-        <v>0.7329007718686824</v>
+        <v>0.7329007718686817</v>
       </c>
       <c r="N97">
         <v>0.5</v>
@@ -4720,10 +4720,10 @@
         <v>0.1065383163405635</v>
       </c>
       <c r="L98">
-        <v>2.309688572892271</v>
+        <v>2.309688572892272</v>
       </c>
       <c r="M98">
-        <v>0.3922302233775551</v>
+        <v>0.3922302233775554</v>
       </c>
       <c r="N98">
         <v>0.5</v>
@@ -4764,7 +4764,7 @@
         <v>0.01736324699796446</v>
       </c>
       <c r="L99">
-        <v>0.8987079138237565</v>
+        <v>0.8987079138237567</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>-0.1472042464876174</v>
       </c>
       <c r="L100">
-        <v>-0.6940877277334082</v>
+        <v>-0.6940877277334074</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -4899,7 +4899,7 @@
         <v>-1.181906590328609</v>
       </c>
       <c r="M102">
-        <v>0.3667280534329879</v>
+        <v>0.3667280534329884</v>
       </c>
       <c r="N102">
         <v>0.5</v>
@@ -4940,7 +4940,7 @@
         <v>-0.3683574604982403</v>
       </c>
       <c r="L103">
-        <v>-0.5788439016465859</v>
+        <v>-0.5788439016465855</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>-0.2909558460895432</v>
       </c>
       <c r="L105">
-        <v>0.05789558879248142</v>
+        <v>0.05789558879248117</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -5072,10 +5072,10 @@
         <v>-0.3425592445292327</v>
       </c>
       <c r="L106">
-        <v>0.2079859814695166</v>
+        <v>0.2079859814695165</v>
       </c>
       <c r="M106">
-        <v>0.05931037433277109</v>
+        <v>0.05931037433277116</v>
       </c>
       <c r="N106">
         <v>0.5</v>
@@ -5116,7 +5116,7 @@
         <v>-0.3188843466444975</v>
       </c>
       <c r="L107">
-        <v>0.4605929454829291</v>
+        <v>0.460592945482929</v>
       </c>
       <c r="M107">
         <v>0.1788340933353764</v>
@@ -5163,7 +5163,7 @@
         <v>0.7728229178756447</v>
       </c>
       <c r="M108">
-        <v>0.8502816952125085</v>
+        <v>0.8502816952125084</v>
       </c>
       <c r="N108">
         <v>0.5</v>
@@ -5204,7 +5204,7 @@
         <v>-0.2826484441208357</v>
       </c>
       <c r="L109">
-        <v>0.5999538482834043</v>
+        <v>0.5999538482834041</v>
       </c>
       <c r="M109">
         <v>0.7582005015615627</v>
@@ -5251,7 +5251,7 @@
         <v>0.5998044210164276</v>
       </c>
       <c r="M110">
-        <v>0.7579914911336522</v>
+        <v>0.7579914911336523</v>
       </c>
       <c r="N110">
         <v>0.5</v>
@@ -5295,7 +5295,7 @@
         <v>0.7335380153727741</v>
       </c>
       <c r="M111">
-        <v>0.945050495477281</v>
+        <v>0.9450504954772811</v>
       </c>
       <c r="N111">
         <v>0.5</v>
@@ -5336,10 +5336,10 @@
         <v>-0.3259400329483891</v>
       </c>
       <c r="L112">
-        <v>0.7014560160492357</v>
+        <v>0.7014560160492358</v>
       </c>
       <c r="M112">
-        <v>0.9001760054159192</v>
+        <v>0.9001760054159194</v>
       </c>
       <c r="N112">
         <v>0.5</v>
@@ -5383,7 +5383,7 @@
         <v>0.4489128726780031</v>
       </c>
       <c r="M113">
-        <v>0.5469329090929701</v>
+        <v>0.5469329090929702</v>
       </c>
       <c r="N113">
         <v>0.5</v>
@@ -5424,10 +5424,10 @@
         <v>-0.3442462271648249</v>
       </c>
       <c r="L114">
-        <v>0.3646629233723367</v>
+        <v>0.3646629233723369</v>
       </c>
       <c r="M114">
-        <v>0.4290888347676675</v>
+        <v>0.4290888347676679</v>
       </c>
       <c r="N114">
         <v>0.5</v>
@@ -5468,7 +5468,7 @@
         <v>-0.4000716543765609</v>
       </c>
       <c r="L115">
-        <v>0.01760059877402057</v>
+        <v>0.01760059877402069</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>-0.4622783812061618</v>
       </c>
       <c r="L116">
-        <v>-0.3427428798732706</v>
+        <v>-0.3427428798732705</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -5556,7 +5556,7 @@
         <v>-0.4362975103472868</v>
       </c>
       <c r="L117">
-        <v>-0.07870277575205184</v>
+        <v>-0.07870277575205195</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -5600,10 +5600,10 @@
         <v>-0.4463364828876787</v>
       </c>
       <c r="L118">
-        <v>-0.1005444848390141</v>
+        <v>-0.100544484839014</v>
       </c>
       <c r="M118">
-        <v>0.08272118040422703</v>
+        <v>0.08272118040422652</v>
       </c>
       <c r="N118">
         <v>0.5</v>
@@ -5644,7 +5644,7 @@
         <v>-0.517644733989208</v>
       </c>
       <c r="L119">
-        <v>-0.4694718254504065</v>
+        <v>-0.4694718254504064</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -5688,7 +5688,7 @@
         <v>-0.5389713482433344</v>
       </c>
       <c r="L120">
-        <v>-0.6035611314387332</v>
+        <v>-0.6035611314387336</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>-0.55838451244015</v>
       </c>
       <c r="L121">
-        <v>-0.7179594698901111</v>
+        <v>-0.7179594698901112</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>-0.5190925442369</v>
       </c>
       <c r="L126">
-        <v>-1.86895320061229</v>
+        <v>-1.868953200612291</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>-0.5353632261274045</v>
       </c>
       <c r="L127">
-        <v>-2.675623739419729</v>
+        <v>-2.67562373941973</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -6043,7 +6043,7 @@
         <v>-1.728471744961871</v>
       </c>
       <c r="M128">
-        <v>0.57067689289187</v>
+        <v>0.5706768928918697</v>
       </c>
       <c r="N128">
         <v>0.5</v>
@@ -6087,7 +6087,7 @@
         <v>-1.368847095250826</v>
       </c>
       <c r="M129">
-        <v>0.3693353477179834</v>
+        <v>0.3693353477179832</v>
       </c>
       <c r="N129">
         <v>0.5</v>
@@ -6172,7 +6172,7 @@
         <v>-0.2567808408908096</v>
       </c>
       <c r="L131">
-        <v>0.5335454666114753</v>
+        <v>0.5335454666114754</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>-0.2449935833727672</v>
       </c>
       <c r="L132">
-        <v>0.6417858080915622</v>
+        <v>0.6417858080915623</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -6260,10 +6260,10 @@
         <v>-0.2590109590398074</v>
       </c>
       <c r="L133">
-        <v>0.5886101180909407</v>
+        <v>0.5886101180909419</v>
       </c>
       <c r="M133">
-        <v>0.5087257738335544</v>
+        <v>0.5087257738335647</v>
       </c>
       <c r="N133">
         <v>0.5</v>
@@ -6304,7 +6304,7 @@
         <v>-0.3574251489296422</v>
       </c>
       <c r="L134">
-        <v>0.4799512620083852</v>
+        <v>0.4799512620083854</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>-0.2409188333835768</v>
       </c>
       <c r="L136">
-        <v>0.5803730341660857</v>
+        <v>0.5803730341660855</v>
       </c>
       <c r="M136">
-        <v>0.649296893307954</v>
+        <v>0.649296893307953</v>
       </c>
       <c r="N136">
         <v>0.5</v>
@@ -6436,10 +6436,10 @@
         <v>-0.2659220141300354</v>
       </c>
       <c r="L137">
-        <v>0.478319331790776</v>
+        <v>0.4783193317907768</v>
       </c>
       <c r="M137">
-        <v>0.06651015066907168</v>
+        <v>0.06651015066907671</v>
       </c>
       <c r="N137">
         <v>0.5</v>
@@ -6483,7 +6483,7 @@
         <v>0.4993249888714252</v>
       </c>
       <c r="M138">
-        <v>0.1864648233765917</v>
+        <v>0.1864648233765919</v>
       </c>
       <c r="N138">
         <v>0.5</v>
@@ -6568,7 +6568,7 @@
         <v>-0.2531854103883391</v>
       </c>
       <c r="L140">
-        <v>0.8413548409777898</v>
+        <v>0.8413548409777901</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -6615,7 +6615,7 @@
         <v>0.8058404496922673</v>
       </c>
       <c r="M141">
-        <v>0.9052146595671913</v>
+        <v>0.9052146595671904</v>
       </c>
       <c r="N141">
         <v>0.5</v>
@@ -6656,10 +6656,10 @@
         <v>-0.2766309487786811</v>
       </c>
       <c r="L142">
-        <v>0.7471715510851635</v>
+        <v>0.747171551085164</v>
       </c>
       <c r="M142">
-        <v>0.7486316146098866</v>
+        <v>0.7486316146098871</v>
       </c>
       <c r="N142">
         <v>0.5</v>
@@ -6700,10 +6700,10 @@
         <v>-0.3200457400080075</v>
       </c>
       <c r="L143">
-        <v>0.4898184885386617</v>
+        <v>0.4898184885386619</v>
       </c>
       <c r="M143">
-        <v>0.06177491337057559</v>
+        <v>0.06177491337057613</v>
       </c>
       <c r="N143">
         <v>0.5</v>
@@ -6744,10 +6744,10 @@
         <v>-0.2637055958560863</v>
       </c>
       <c r="L144">
-        <v>0.6787396605946835</v>
+        <v>0.6787396605946834</v>
       </c>
       <c r="M144">
-        <v>0.5659918507898317</v>
+        <v>0.5659918507898309</v>
       </c>
       <c r="N144">
         <v>0.5</v>
@@ -6788,7 +6788,7 @@
         <v>-0.1852631275233643</v>
       </c>
       <c r="L145">
-        <v>1.020521389188471</v>
+        <v>1.020521389188473</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>-0.05397173804541065</v>
       </c>
       <c r="L146">
-        <v>1.342483653340961</v>
+        <v>1.34248365334096</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -6876,10 +6876,10 @@
         <v>-0.06823299800340114</v>
       </c>
       <c r="L147">
-        <v>1.105015556491877</v>
+        <v>1.105015556491878</v>
       </c>
       <c r="M147">
-        <v>0.7214990049415896</v>
+        <v>0.7214990049415906</v>
       </c>
       <c r="N147">
         <v>0.5</v>
@@ -6920,10 +6920,10 @@
         <v>-0.09471949291682737</v>
       </c>
       <c r="L148">
-        <v>0.8114139355340124</v>
+        <v>0.8114139355340125</v>
       </c>
       <c r="M148">
-        <v>0.3771649884042307</v>
+        <v>0.377164988404231</v>
       </c>
       <c r="N148">
         <v>0.5</v>
@@ -6964,10 +6964,10 @@
         <v>0.05986535175807736</v>
       </c>
       <c r="L149">
-        <v>0.8895351376040302</v>
+        <v>0.8895351376040317</v>
       </c>
       <c r="M149">
-        <v>0.4687850114740499</v>
+        <v>0.4687850114740518</v>
       </c>
       <c r="N149">
         <v>0.5</v>
@@ -7052,7 +7052,7 @@
         <v>0.1213761027553485</v>
       </c>
       <c r="L151">
-        <v>0.304990453653094</v>
+        <v>0.3049904536530936</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -7096,10 +7096,10 @@
         <v>0.1322535977927253</v>
       </c>
       <c r="L152">
-        <v>0.6688763512963058</v>
+        <v>0.6688763512963057</v>
       </c>
       <c r="M152">
-        <v>0.3507356942220807</v>
+        <v>0.3507356942220811</v>
       </c>
       <c r="N152">
         <v>0.5</v>
@@ -7140,10 +7140,10 @@
         <v>0.1532044689619919</v>
       </c>
       <c r="L153">
-        <v>0.4763701153097414</v>
+        <v>0.4763701153097418</v>
       </c>
       <c r="M153">
-        <v>0.1651862987711221</v>
+        <v>0.1651862987711229</v>
       </c>
       <c r="N153">
         <v>0.5</v>
@@ -7228,10 +7228,10 @@
         <v>0.2862202956599882</v>
       </c>
       <c r="L155">
-        <v>0.4934709357360988</v>
+        <v>0.4934709357360991</v>
       </c>
       <c r="M155">
-        <v>0.1980262287060542</v>
+        <v>0.1980262287060545</v>
       </c>
       <c r="N155">
         <v>0.5</v>
@@ -7316,7 +7316,7 @@
         <v>0.3759466110390293</v>
       </c>
       <c r="L157">
-        <v>1.408587636949133</v>
+        <v>1.408587636949132</v>
       </c>
       <c r="M157">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>0.4807900792118161</v>
       </c>
       <c r="L161">
-        <v>2.300805613813846</v>
+        <v>2.300805613813847</v>
       </c>
       <c r="M161">
         <v>1</v>
@@ -7536,10 +7536,10 @@
         <v>0.4648444612872257</v>
       </c>
       <c r="L162">
-        <v>2.2701648363886</v>
+        <v>2.270164836388601</v>
       </c>
       <c r="M162">
-        <v>0.9848085557455697</v>
+        <v>0.9848085557455695</v>
       </c>
       <c r="N162">
         <v>0.5</v>
@@ -7668,10 +7668,10 @@
         <v>0.4392367008000004</v>
       </c>
       <c r="L165">
-        <v>2.326986993447629</v>
+        <v>2.32698699344763</v>
       </c>
       <c r="M165">
-        <v>0.8546307958978515</v>
+        <v>0.8546307958978522</v>
       </c>
       <c r="N165">
         <v>0.5</v>
@@ -7715,7 +7715,7 @@
         <v>2.044237910949624</v>
       </c>
       <c r="M166">
-        <v>0.5703035591324183</v>
+        <v>0.570303559132418</v>
       </c>
       <c r="N166">
         <v>0.5</v>
@@ -7756,10 +7756,10 @@
         <v>0.3476118324130441</v>
       </c>
       <c r="L167">
-        <v>1.993080249401987</v>
+        <v>1.993080249401986</v>
       </c>
       <c r="M167">
-        <v>0.4159414476767754</v>
+        <v>0.4159414476767743</v>
       </c>
       <c r="N167">
         <v>0.5</v>
@@ -7800,7 +7800,7 @@
         <v>0.3075631546701551</v>
       </c>
       <c r="L168">
-        <v>1.710822586057179</v>
+        <v>1.71082258605718</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -7844,7 +7844,7 @@
         <v>0.2906737665778824</v>
       </c>
       <c r="L169">
-        <v>1.494080203809915</v>
+        <v>1.494080203809914</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>0.2051853978841043</v>
       </c>
       <c r="L171">
-        <v>0.8295557165844111</v>
+        <v>0.829555716584411</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -7976,7 +7976,7 @@
         <v>-0.1172590743262629</v>
       </c>
       <c r="L172">
-        <v>0.117813563914305</v>
+        <v>0.1178135639143048</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -8023,7 +8023,7 @@
         <v>1.291284532626344</v>
       </c>
       <c r="M173">
-        <v>0.4878574183814379</v>
+        <v>0.4878574183814384</v>
       </c>
       <c r="N173">
         <v>0.5</v>
@@ -8064,7 +8064,7 @@
         <v>0.0109586202704714</v>
       </c>
       <c r="L174">
-        <v>0.6891785863583463</v>
+        <v>0.6891785863583462</v>
       </c>
       <c r="M174">
         <v>0.2586329415363007</v>
@@ -8111,7 +8111,7 @@
         <v>0.4803684927031571</v>
       </c>
       <c r="M175">
-        <v>0.1882009689852643</v>
+        <v>0.1882009689852644</v>
       </c>
       <c r="N175">
         <v>0.5</v>
@@ -8152,10 +8152,10 @@
         <v>0.005356271507568198</v>
       </c>
       <c r="L176">
-        <v>0.3132090176469336</v>
+        <v>0.3132090176469337</v>
       </c>
       <c r="M176">
-        <v>0.1041960886122253</v>
+        <v>0.1041960886122255</v>
       </c>
       <c r="N176">
         <v>0.5</v>
@@ -8196,7 +8196,7 @@
         <v>0.01774170919588935</v>
       </c>
       <c r="L177">
-        <v>0.5710535514699345</v>
+        <v>0.5710535514699344</v>
       </c>
       <c r="M177">
         <v>0.284518154797355</v>
@@ -8240,10 +8240,10 @@
         <v>0.0269228202152018</v>
       </c>
       <c r="L178">
-        <v>0.6777938220536751</v>
+        <v>0.6777938220536749</v>
       </c>
       <c r="M178">
-        <v>0.4068835514183826</v>
+        <v>0.4068835514183827</v>
       </c>
       <c r="N178">
         <v>0.5</v>
@@ -8284,10 +8284,10 @@
         <v>0.02582064907097233</v>
       </c>
       <c r="L179">
-        <v>0.6090055758249984</v>
+        <v>0.6090055758249981</v>
       </c>
       <c r="M179">
-        <v>0.418580454913008</v>
+        <v>0.4185804549130076</v>
       </c>
       <c r="N179">
         <v>0.5</v>
@@ -8328,10 +8328,10 @@
         <v>0.05681179016761517</v>
       </c>
       <c r="L180">
-        <v>0.755720337936701</v>
+        <v>0.7557203379367012</v>
       </c>
       <c r="M180">
-        <v>0.5436067794012327</v>
+        <v>0.5436067794012325</v>
       </c>
       <c r="N180">
         <v>0.5</v>
@@ -8372,10 +8372,10 @@
         <v>0.06069807414937171</v>
       </c>
       <c r="L181">
-        <v>0.867138058584025</v>
+        <v>0.8671380585840256</v>
       </c>
       <c r="M181">
-        <v>0.6385539264700794</v>
+        <v>0.6385539264700795</v>
       </c>
       <c r="N181">
         <v>0.5</v>
@@ -8419,7 +8419,7 @@
         <v>0.51136813418583</v>
       </c>
       <c r="M182">
-        <v>0.2026010400056564</v>
+        <v>0.2026010400056562</v>
       </c>
       <c r="N182">
         <v>0.5</v>
@@ -8460,10 +8460,10 @@
         <v>-0.01636243521931974</v>
       </c>
       <c r="L183">
-        <v>0.3195050334121973</v>
+        <v>0.3195050334121971</v>
       </c>
       <c r="M183">
-        <v>0.01136610522281455</v>
+        <v>0.01136610522281404</v>
       </c>
       <c r="N183">
         <v>0.5</v>
@@ -8507,7 +8507,7 @@
         <v>0.401542631552234</v>
       </c>
       <c r="M184">
-        <v>0.1594673818795723</v>
+        <v>0.159467381879572</v>
       </c>
       <c r="N184">
         <v>0.5</v>
@@ -8548,10 +8548,10 @@
         <v>0.03836261693406334</v>
       </c>
       <c r="L185">
-        <v>0.6778189423518667</v>
+        <v>0.6778189423518663</v>
       </c>
       <c r="M185">
-        <v>0.6582249670248669</v>
+        <v>0.6582249670248654</v>
       </c>
       <c r="N185">
         <v>0.5</v>
@@ -8592,10 +8592,10 @@
         <v>-0.1141238083653733</v>
       </c>
       <c r="L186">
-        <v>0.5803241748818387</v>
+        <v>0.5803241748818386</v>
       </c>
       <c r="M186">
-        <v>0.4762662759204591</v>
+        <v>0.4762662759204587</v>
       </c>
       <c r="N186">
         <v>0.5</v>
@@ -8636,10 +8636,10 @@
         <v>-0.1177675998506106</v>
       </c>
       <c r="L187">
-        <v>0.7285481938437123</v>
+        <v>0.7285481938437117</v>
       </c>
       <c r="M187">
-        <v>0.7469293151251639</v>
+        <v>0.7469293151251624</v>
       </c>
       <c r="N187">
         <v>0.5</v>
@@ -8680,7 +8680,7 @@
         <v>-0.139851685457889</v>
       </c>
       <c r="L188">
-        <v>0.5952893260493426</v>
+        <v>0.5952893260493427</v>
       </c>
       <c r="M188">
         <v>0.5035932457700373</v>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>-0.0230607912042827</v>
+        <v>-0.02306079120428271</v>
       </c>
       <c r="K189">
         <v>-0.1867976273828666</v>
@@ -8768,7 +8768,7 @@
         <v>-0.2271628584089355</v>
       </c>
       <c r="L190">
-        <v>-0.119672133933687</v>
+        <v>-0.1196721339336873</v>
       </c>
       <c r="M190">
         <v>1</v>
@@ -8812,7 +8812,7 @@
         <v>-0.2260831147055238</v>
       </c>
       <c r="L191">
-        <v>-0.05993913287928759</v>
+        <v>-0.05993913287928767</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>-0.2111708730030191</v>
       </c>
       <c r="L193">
-        <v>0.1653930708132207</v>
+        <v>0.1653930708132209</v>
       </c>
       <c r="M193">
-        <v>0.04280674050489391</v>
+        <v>0.04280674050489437</v>
       </c>
       <c r="N193">
         <v>0.5</v>
@@ -8944,7 +8944,7 @@
         <v>-0.3547447468413832</v>
       </c>
       <c r="L194">
-        <v>-0.1920153322558645</v>
+        <v>-0.1920153322558648</v>
       </c>
       <c r="M194">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>-0.3706537011035628</v>
       </c>
       <c r="L195">
-        <v>-0.1961306871088691</v>
+        <v>-0.1961306871088689</v>
       </c>
       <c r="M195">
         <v>1</v>
@@ -9026,13 +9026,13 @@
         <v>6</v>
       </c>
       <c r="J196">
-        <v>9.171366998676055e-05</v>
+        <v>9.171366998676055E-05</v>
       </c>
       <c r="K196">
         <v>-0.4769916221359569</v>
       </c>
       <c r="L196">
-        <v>-0.6107775743536102</v>
+        <v>-0.6107775743536104</v>
       </c>
       <c r="M196">
         <v>1</v>
@@ -9076,10 +9076,10 @@
         <v>-0.4754070467996405</v>
       </c>
       <c r="L197">
-        <v>-0.5043528413642426</v>
+        <v>-0.5043528413642424</v>
       </c>
       <c r="M197">
-        <v>0.8067950146970115</v>
+        <v>0.8067950146970109</v>
       </c>
       <c r="N197">
         <v>0.5</v>
@@ -9120,7 +9120,7 @@
         <v>-0.4991538000643699</v>
       </c>
       <c r="L198">
-        <v>-0.616930235021393</v>
+        <v>-0.6169302350213924</v>
       </c>
       <c r="M198">
         <v>1</v>
@@ -9164,7 +9164,7 @@
         <v>-0.6898020170324912</v>
       </c>
       <c r="L199">
-        <v>-0.6818433317960391</v>
+        <v>-0.6818433317960387</v>
       </c>
       <c r="M199">
         <v>1</v>
@@ -9208,10 +9208,10 @@
         <v>-0.678228081893103</v>
       </c>
       <c r="L200">
-        <v>-0.27500872604266</v>
+        <v>-0.2750087260426597</v>
       </c>
       <c r="M200">
-        <v>0.3458243143204148</v>
+        <v>0.3458243143204143</v>
       </c>
       <c r="N200">
         <v>0.5</v>
@@ -9252,10 +9252,10 @@
         <v>-0.6992553131000881</v>
       </c>
       <c r="L201">
-        <v>-0.5885005823612146</v>
+        <v>-0.5885005823612141</v>
       </c>
       <c r="M201">
-        <v>0.8094377015555464</v>
+        <v>0.8094377015555456</v>
       </c>
       <c r="N201">
         <v>0.5</v>
@@ -9296,7 +9296,7 @@
         <v>-0.5212468820903571</v>
       </c>
       <c r="L202">
-        <v>0.246459242616874</v>
+        <v>0.2464592426168735</v>
       </c>
       <c r="M202">
         <v>1</v>
@@ -9340,7 +9340,7 @@
         <v>-0.3873826080389119</v>
       </c>
       <c r="L203">
-        <v>0.1083313727667877</v>
+        <v>0.1083313727667876</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -9384,10 +9384,10 @@
         <v>-0.4636408763893287</v>
       </c>
       <c r="L204">
-        <v>-0.2116067810940248</v>
+        <v>-0.2116067810940249</v>
       </c>
       <c r="M204">
-        <v>0.0318626540907191</v>
+        <v>0.03186265409071973</v>
       </c>
       <c r="N204">
         <v>0.5</v>
@@ -9428,7 +9428,7 @@
         <v>-0.5016380727670432</v>
       </c>
       <c r="L205">
-        <v>-0.3781062443805503</v>
+        <v>-0.3781062443805502</v>
       </c>
       <c r="M205">
         <v>0.3540759709936608</v>
@@ -9472,10 +9472,10 @@
         <v>-0.5497054258501323</v>
       </c>
       <c r="L206">
-        <v>-0.672582831902019</v>
+        <v>-0.6725828319020191</v>
       </c>
       <c r="M206">
-        <v>0.9803067203512889</v>
+        <v>0.9803067203512897</v>
       </c>
       <c r="N206">
         <v>0.5</v>
@@ -9516,7 +9516,7 @@
         <v>-0.5536379688666968</v>
       </c>
       <c r="L207">
-        <v>-0.8396481286038906</v>
+        <v>-0.8396481286038914</v>
       </c>
       <c r="M207">
         <v>1</v>
@@ -9560,10 +9560,10 @@
         <v>-0.5479644443217898</v>
       </c>
       <c r="L208">
-        <v>-0.7001074540847827</v>
+        <v>-0.7001074540847826</v>
       </c>
       <c r="M208">
-        <v>0.7778161022799285</v>
+        <v>0.7778161022799274</v>
       </c>
       <c r="N208">
         <v>0.5</v>
@@ -9607,7 +9607,7 @@
         <v>-0.7842695199690919</v>
       </c>
       <c r="M209">
-        <v>0.9118233077258838</v>
+        <v>0.9118233077258827</v>
       </c>
       <c r="N209">
         <v>0.5</v>
@@ -9645,13 +9645,13 @@
         <v>-0.01325306002253894</v>
       </c>
       <c r="K210">
-        <v>-0.6119440459555447</v>
+        <v>-0.6119440459555449</v>
       </c>
       <c r="L210">
-        <v>-0.6617030734793672</v>
+        <v>-0.6617030734793674</v>
       </c>
       <c r="M210">
-        <v>0.716666656056864</v>
+        <v>0.7166666560568634</v>
       </c>
       <c r="N210">
         <v>0.5</v>
@@ -9695,7 +9695,7 @@
         <v>-0.7606545979139115</v>
       </c>
       <c r="M211">
-        <v>0.8742224043000001</v>
+        <v>0.874222404299999</v>
       </c>
       <c r="N211">
         <v>0.5</v>
@@ -9730,16 +9730,16 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0.03568793637389558</v>
+        <v>0.03568793637389559</v>
       </c>
       <c r="K212">
         <v>-0.6158265840042659</v>
       </c>
       <c r="L212">
-        <v>-0.6951416337993686</v>
+        <v>-0.6951416337993689</v>
       </c>
       <c r="M212">
-        <v>0.7699092657235406</v>
+        <v>0.7699092657235401</v>
       </c>
       <c r="N212">
         <v>0.5</v>
@@ -9780,10 +9780,10 @@
         <v>-0.4836233845120357</v>
       </c>
       <c r="L213">
-        <v>-0.5840141385074096</v>
+        <v>-0.5840141385074092</v>
       </c>
       <c r="M213">
-        <v>0.5929663053076847</v>
+        <v>0.5929663053076834</v>
       </c>
       <c r="N213">
         <v>0.5</v>
@@ -9824,10 +9824,10 @@
         <v>-0.4946208573538312</v>
       </c>
       <c r="L214">
-        <v>-0.7715512716789625</v>
+        <v>-0.7715512716789622</v>
       </c>
       <c r="M214">
-        <v>0.8524579041412069</v>
+        <v>0.8524579041412048</v>
       </c>
       <c r="N214">
         <v>0.5</v>
@@ -9868,7 +9868,7 @@
         <v>-0.5400255553014346</v>
       </c>
       <c r="L215">
-        <v>-1.26863021664178</v>
+        <v>-1.268630216641781</v>
       </c>
       <c r="M215">
         <v>1</v>
@@ -9956,7 +9956,7 @@
         <v>-0.4860712207345845</v>
       </c>
       <c r="L217">
-        <v>-1.776841376482616</v>
+        <v>-1.776841376482615</v>
       </c>
       <c r="M217">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>-0.04650852104409239</v>
       </c>
       <c r="K218">
-        <v>-0.4913548589409129</v>
+        <v>-0.4913548589409128</v>
       </c>
       <c r="L218">
         <v>-1.852211787128126</v>
@@ -10041,13 +10041,13 @@
         <v>0.01958743721701841</v>
       </c>
       <c r="K219">
-        <v>-0.5394740055043034</v>
+        <v>-0.5394740055043032</v>
       </c>
       <c r="L219">
         <v>-1.616402152584319</v>
       </c>
       <c r="M219">
-        <v>0.8140592400559388</v>
+        <v>0.8140592400559392</v>
       </c>
       <c r="N219">
         <v>0.5</v>
@@ -10085,13 +10085,13 @@
         <v>-0.01008892003932233</v>
       </c>
       <c r="K220">
-        <v>-0.4937658565627258</v>
+        <v>-0.4937658565627256</v>
       </c>
       <c r="L220">
         <v>-1.37401861444124</v>
       </c>
       <c r="M220">
-        <v>0.6229348215501221</v>
+        <v>0.6229348215501226</v>
       </c>
       <c r="N220">
         <v>0.5</v>
@@ -10129,13 +10129,13 @@
         <v>-0.01039372229538899</v>
       </c>
       <c r="K221">
-        <v>-0.4965683047137487</v>
+        <v>-0.4965683047137486</v>
       </c>
       <c r="L221">
-        <v>-1.54196885682469</v>
+        <v>-1.541968856824691</v>
       </c>
       <c r="M221">
-        <v>0.7553670513102948</v>
+        <v>0.7553670513102958</v>
       </c>
       <c r="N221">
         <v>0.5</v>
@@ -10173,7 +10173,7 @@
         <v>-0.00755104058250373</v>
       </c>
       <c r="K222">
-        <v>-0.5089771596320501</v>
+        <v>-0.5089771596320499</v>
       </c>
       <c r="L222">
         <v>-2.028185771013677</v>
@@ -10217,7 +10217,7 @@
         <v>0.02595473715546746</v>
       </c>
       <c r="K223">
-        <v>-0.5102818775359019</v>
+        <v>-0.5102818775359018</v>
       </c>
       <c r="L223">
         <v>-2.371353523165552</v>
@@ -10261,13 +10261,13 @@
         <v>-0.01500714233745137</v>
       </c>
       <c r="K224">
-        <v>-0.4406619212965519</v>
+        <v>-0.4406619212965517</v>
       </c>
       <c r="L224">
-        <v>-2.086463958294412</v>
+        <v>-2.086463958294411</v>
       </c>
       <c r="M224">
-        <v>0.7416490943959215</v>
+        <v>0.7416490943959206</v>
       </c>
       <c r="N224">
         <v>0.5</v>
@@ -10305,10 +10305,10 @@
         <v>0.01141430833498261</v>
       </c>
       <c r="K225">
-        <v>-0.4473750965820821</v>
+        <v>-0.4473750965820818</v>
       </c>
       <c r="L225">
-        <v>-2.419592102621663</v>
+        <v>-2.419592102621662</v>
       </c>
       <c r="M225">
         <v>1</v>
@@ -10349,13 +10349,13 @@
         <v>0.005667011012890267</v>
       </c>
       <c r="K226">
-        <v>-0.415761533504801</v>
+        <v>-0.4157615335048009</v>
       </c>
       <c r="L226">
-        <v>-1.95100829680007</v>
+        <v>-1.951008296800067</v>
       </c>
       <c r="M226">
-        <v>0.5518403908298648</v>
+        <v>0.5518403908298625</v>
       </c>
       <c r="N226">
         <v>0.5</v>
@@ -10396,10 +10396,10 @@
         <v>-0.4132676330746657</v>
       </c>
       <c r="L227">
-        <v>-1.786367307988326</v>
+        <v>-1.786367307988325</v>
       </c>
       <c r="M227">
-        <v>0.3943756208515603</v>
+        <v>0.3943756208515594</v>
       </c>
       <c r="N227">
         <v>0.5</v>
@@ -10437,10 +10437,10 @@
         <v>0.004208261115841451</v>
       </c>
       <c r="K228">
-        <v>-0.3734434381378134</v>
+        <v>-0.3734434381378133</v>
       </c>
       <c r="L228">
-        <v>-1.342243419024874</v>
+        <v>-1.342243419024871</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -10528,7 +10528,7 @@
         <v>-0.03086872300517396</v>
       </c>
       <c r="L230">
-        <v>-0.2909126731132838</v>
+        <v>-0.2909126731132843</v>
       </c>
       <c r="M230">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0.01374376353686533</v>
       </c>
       <c r="L231">
-        <v>0.69695825681141</v>
+        <v>0.6969582568114097</v>
       </c>
       <c r="M231">
         <v>1</v>
@@ -10616,7 +10616,7 @@
         <v>-0.01762994580746246</v>
       </c>
       <c r="L232">
-        <v>1.14110615203992</v>
+        <v>1.141106152039919</v>
       </c>
       <c r="M232">
         <v>1</v>
@@ -10660,10 +10660,10 @@
         <v>-0.1363625708277304</v>
       </c>
       <c r="L233">
-        <v>1.139005100780163</v>
+        <v>1.139005100780162</v>
       </c>
       <c r="M233">
-        <v>0.9952694782924132</v>
+        <v>0.9952694782924136</v>
       </c>
       <c r="N233">
         <v>0.5</v>
@@ -10704,7 +10704,7 @@
         <v>-0.1592511029836151</v>
       </c>
       <c r="L234">
-        <v>0.6530162015120017</v>
+        <v>0.653016201512002</v>
       </c>
       <c r="M234">
         <v>0</v>
@@ -10745,13 +10745,13 @@
         <v>0.001445772146341638</v>
       </c>
       <c r="K235">
-        <v>-0.07183411424042438</v>
+        <v>-0.07183411424042437</v>
       </c>
       <c r="L235">
         <v>1.011296346613092</v>
       </c>
       <c r="M235">
-        <v>0.7340453224115231</v>
+        <v>0.734045322411524</v>
       </c>
       <c r="N235">
         <v>0.5</v>
@@ -10789,13 +10789,13 @@
         <v>-0.008520363340229769</v>
       </c>
       <c r="K236">
-        <v>-0.07681559126450035</v>
+        <v>-0.07681559126450029</v>
       </c>
       <c r="L236">
-        <v>0.9720217962882668</v>
+        <v>0.9720217962882661</v>
       </c>
       <c r="M236">
-        <v>0.6535795183474448</v>
+        <v>0.6535795183474441</v>
       </c>
       <c r="N236">
         <v>0.5</v>
@@ -10833,13 +10833,13 @@
         <v>0.02165596513277218</v>
       </c>
       <c r="K237">
-        <v>-0.08809818358469779</v>
+        <v>-0.0880981835846977</v>
       </c>
       <c r="L237">
-        <v>0.7885273793457057</v>
+        <v>0.7885273793457058</v>
       </c>
       <c r="M237">
-        <v>0.2776356646702827</v>
+        <v>0.2776356646702828</v>
       </c>
       <c r="N237">
         <v>0.5</v>
@@ -10877,13 +10877,13 @@
         <v>0.01196375329074168</v>
       </c>
       <c r="K238">
-        <v>-0.04478292156861046</v>
+        <v>-0.04478292156861039</v>
       </c>
       <c r="L238">
-        <v>1.0728597558457</v>
+        <v>1.072859755845701</v>
       </c>
       <c r="M238">
-        <v>0.8601766003983394</v>
+        <v>0.8601766003983414</v>
       </c>
       <c r="N238">
         <v>0.5</v>
@@ -10921,7 +10921,7 @@
         <v>0.01524068116409094</v>
       </c>
       <c r="K239">
-        <v>0.1337690684576874</v>
+        <v>0.1337690684576875</v>
       </c>
       <c r="L239">
         <v>1.213548466336447</v>
@@ -10965,7 +10965,7 @@
         <v>0.01714085564689099</v>
       </c>
       <c r="K240">
-        <v>0.1705056346883306</v>
+        <v>0.1705056346883307</v>
       </c>
       <c r="L240">
         <v>1.40375119213496</v>
@@ -11009,7 +11009,7 @@
         <v>0.008880047088467694</v>
       </c>
       <c r="K241">
-        <v>0.2135079499997352</v>
+        <v>0.2135079499997353</v>
       </c>
       <c r="L241">
         <v>1.629040753768839</v>
@@ -11191,7 +11191,7 @@
         <v>2.176993096269531</v>
       </c>
       <c r="M245">
-        <v>0.8699692424358361</v>
+        <v>0.869969242435836</v>
       </c>
       <c r="N245">
         <v>0.5</v>
@@ -11232,7 +11232,7 @@
         <v>0.2322896130383787</v>
       </c>
       <c r="L246">
-        <v>2.66686914487154</v>
+        <v>2.666869144871539</v>
       </c>
       <c r="M246">
         <v>1</v>
@@ -11323,7 +11323,7 @@
         <v>2.791206017050307</v>
       </c>
       <c r="M248">
-        <v>0.9489320487466594</v>
+        <v>0.9489320487466596</v>
       </c>
       <c r="N248">
         <v>0.5</v>
@@ -11411,7 +11411,7 @@
         <v>2.489333980010191</v>
       </c>
       <c r="M250">
-        <v>0.4115041452185503</v>
+        <v>0.4115041452185502</v>
       </c>
       <c r="N250">
         <v>0.5</v>
@@ -11499,7 +11499,7 @@
         <v>3.074536896170618</v>
       </c>
       <c r="M252">
-        <v>0.5818179117340269</v>
+        <v>0.5818179117340267</v>
       </c>
       <c r="N252">
         <v>0.5</v>
@@ -11543,7 +11543,7 @@
         <v>3.193904941974883</v>
       </c>
       <c r="M253">
-        <v>0.6591962715926353</v>
+        <v>0.6591962715926352</v>
       </c>
       <c r="N253">
         <v>0.5</v>
@@ -11584,10 +11584,10 @@
         <v>0.5386904460127565</v>
       </c>
       <c r="L254">
-        <v>2.981169975944949</v>
+        <v>2.98116997594495</v>
       </c>
       <c r="M254">
-        <v>0.5212943511493258</v>
+        <v>0.5212943511493263</v>
       </c>
       <c r="N254">
         <v>0.5</v>
@@ -11628,10 +11628,10 @@
         <v>0.5805703420453431</v>
       </c>
       <c r="L255">
-        <v>3.45316725547337</v>
+        <v>3.453167255473371</v>
       </c>
       <c r="M255">
-        <v>0.7834047828967102</v>
+        <v>0.7834047828967111</v>
       </c>
       <c r="N255">
         <v>0.5</v>
@@ -11672,10 +11672,10 @@
         <v>0.5418743312644245</v>
       </c>
       <c r="L256">
-        <v>3.132742410403149</v>
+        <v>3.132742410403148</v>
       </c>
       <c r="M256">
-        <v>0.5229631042606234</v>
+        <v>0.5229631042606225</v>
       </c>
       <c r="N256">
         <v>0.5</v>
@@ -11716,10 +11716,10 @@
         <v>0.4275564461379336</v>
       </c>
       <c r="L257">
-        <v>2.867765715763761</v>
+        <v>2.867765715763759</v>
       </c>
       <c r="M257">
-        <v>0.3075897453807884</v>
+        <v>0.3075897453807869</v>
       </c>
       <c r="N257">
         <v>0.5</v>
@@ -11760,10 +11760,10 @@
         <v>0.4109644831741067</v>
       </c>
       <c r="L258">
-        <v>2.625605446052014</v>
+        <v>2.625605446052013</v>
       </c>
       <c r="M258">
-        <v>0.1107616026415026</v>
+        <v>0.1107616026415019</v>
       </c>
       <c r="N258">
         <v>0.5</v>
@@ -11804,7 +11804,7 @@
         <v>0.183701633048282</v>
       </c>
       <c r="L259">
-        <v>2.285316023451686</v>
+        <v>2.285316023451685</v>
       </c>
       <c r="M259">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>-0.3285153123679419</v>
       </c>
       <c r="L260">
-        <v>0.9601802218771706</v>
+        <v>0.9601802218771703</v>
       </c>
       <c r="M260">
         <v>0</v>
@@ -11936,10 +11936,10 @@
         <v>-0.1467045279206194</v>
       </c>
       <c r="L262">
-        <v>1.615026920971096</v>
+        <v>1.615026920971097</v>
       </c>
       <c r="M262">
-        <v>0.2626755335142245</v>
+        <v>0.2626755335142246</v>
       </c>
       <c r="N262">
         <v>0.5</v>
@@ -11983,7 +11983,7 @@
         <v>1.588808528231046</v>
       </c>
       <c r="M263">
-        <v>0.252158674667097</v>
+        <v>0.2521586746670971</v>
       </c>
       <c r="N263">
         <v>0.5</v>
@@ -12027,7 +12027,7 @@
         <v>1.011503637532313</v>
       </c>
       <c r="M264">
-        <v>0.02058711696591028</v>
+        <v>0.02058711696591035</v>
       </c>
       <c r="N264">
         <v>0.5</v>
@@ -12071,7 +12071,7 @@
         <v>1.004361529890915</v>
       </c>
       <c r="M265">
-        <v>0.0203360383638637</v>
+        <v>0.02033603836386401</v>
       </c>
       <c r="N265">
         <v>0.5</v>
@@ -12112,10 +12112,10 @@
         <v>-0.2873324053248515</v>
       </c>
       <c r="L266">
-        <v>0.9698781938066552</v>
+        <v>0.9698781938066547</v>
       </c>
       <c r="M266">
-        <v>0.005083898971010519</v>
+        <v>0.005083898971010407</v>
       </c>
       <c r="N266">
         <v>0.5</v>
@@ -12200,7 +12200,7 @@
         <v>-0.3948640748888343</v>
       </c>
       <c r="L268">
-        <v>-0.08081366668946971</v>
+        <v>-0.08081366668947021</v>
       </c>
       <c r="M268">
         <v>1</v>
@@ -12288,7 +12288,7 @@
         <v>-0.1630945418179354</v>
       </c>
       <c r="L270">
-        <v>0.4671433463193546</v>
+        <v>0.4671433463193543</v>
       </c>
       <c r="M270">
         <v>0</v>
@@ -12376,10 +12376,10 @@
         <v>-0.1629696772064774</v>
       </c>
       <c r="L272">
-        <v>0.3902169775446852</v>
+        <v>0.3902169775446849</v>
       </c>
       <c r="M272">
-        <v>0.05063376693412106</v>
+        <v>0.05063376693412082</v>
       </c>
       <c r="N272">
         <v>0.5</v>
@@ -12464,10 +12464,10 @@
         <v>-0.1473733764591152</v>
       </c>
       <c r="L274">
-        <v>0.3615069504088879</v>
+        <v>0.3615069504088877</v>
       </c>
       <c r="M274">
-        <v>0.1581246921287069</v>
+        <v>0.1581246921287065</v>
       </c>
       <c r="N274">
         <v>0.5</v>
@@ -12508,10 +12508,10 @@
         <v>-0.1370538282828681</v>
       </c>
       <c r="L275">
-        <v>0.4530243988037191</v>
+        <v>0.4530243988037193</v>
       </c>
       <c r="M275">
-        <v>0.2911217036493097</v>
+        <v>0.2911217036493101</v>
       </c>
       <c r="N275">
         <v>0.5</v>
@@ -12596,7 +12596,7 @@
         <v>-0.1883535244298677</v>
       </c>
       <c r="L277">
-        <v>0.1525548424107003</v>
+        <v>0.1525548424107</v>
       </c>
       <c r="M277">
         <v>0</v>
@@ -12640,7 +12640,7 @@
         <v>-0.2023966944930703</v>
       </c>
       <c r="L278">
-        <v>-0.04646616684635588</v>
+        <v>-0.04646616684635615</v>
       </c>
       <c r="M278">
         <v>1</v>
@@ -12684,7 +12684,7 @@
         <v>-0.2388812791265314</v>
       </c>
       <c r="L279">
-        <v>-0.3658153839668154</v>
+        <v>-0.3658153839668155</v>
       </c>
       <c r="M279">
         <v>1</v>
@@ -12728,10 +12728,10 @@
         <v>-0.2218540716872224</v>
       </c>
       <c r="L280">
-        <v>-0.3090955035052816</v>
+        <v>-0.3090955035052813</v>
       </c>
       <c r="M280">
-        <v>0.822389167028586</v>
+        <v>0.8223891670285847</v>
       </c>
       <c r="N280">
         <v>0.5</v>
@@ -12772,7 +12772,7 @@
         <v>-0.2356800256617948</v>
       </c>
       <c r="L281">
-        <v>-0.4164407159715161</v>
+        <v>-0.4164407159715158</v>
       </c>
       <c r="M281">
         <v>1</v>
@@ -12816,7 +12816,7 @@
         <v>-0.2362888444037562</v>
       </c>
       <c r="L282">
-        <v>-0.5353286576803811</v>
+        <v>-0.535328657680381</v>
       </c>
       <c r="M282">
         <v>1</v>
@@ -12860,7 +12860,7 @@
         <v>-0.2298102055028206</v>
       </c>
       <c r="L283">
-        <v>-0.5970883784152308</v>
+        <v>-0.597088378415231</v>
       </c>
       <c r="M283">
         <v>1</v>
@@ -12904,7 +12904,7 @@
         <v>-0.1971629308510503</v>
       </c>
       <c r="L284">
-        <v>-0.7442178259248855</v>
+        <v>-0.7442178259248856</v>
       </c>
       <c r="M284">
         <v>1</v>
@@ -13036,7 +13036,7 @@
         <v>-0.1788986616271072</v>
       </c>
       <c r="L287">
-        <v>-1.558342116533649</v>
+        <v>-1.558342116533648</v>
       </c>
       <c r="M287">
         <v>1</v>
@@ -13168,10 +13168,10 @@
         <v>0.07949888521404759</v>
       </c>
       <c r="L290">
-        <v>-1.715407089578882</v>
+        <v>-1.715407089578881</v>
       </c>
       <c r="M290">
-        <v>0.4366150958794762</v>
+        <v>0.436615095879476</v>
       </c>
       <c r="N290">
         <v>0.5</v>
@@ -13212,10 +13212,10 @@
         <v>-0.05492335667894225</v>
       </c>
       <c r="L291">
-        <v>-1.608806279468378</v>
+        <v>-1.608806279468379</v>
       </c>
       <c r="M291">
-        <v>0.375841777886087</v>
+        <v>0.3758417778860871</v>
       </c>
       <c r="N291">
         <v>0.5</v>
@@ -13259,7 +13259,7 @@
         <v>-2.119981215763552</v>
       </c>
       <c r="M292">
-        <v>0.5449732677291493</v>
+        <v>0.5449732677291494</v>
       </c>
       <c r="N292">
         <v>0.5</v>
@@ -13300,10 +13300,10 @@
         <v>-0.1657733047386591</v>
       </c>
       <c r="L293">
-        <v>-2.18547229225359</v>
+        <v>-2.185472292253589</v>
       </c>
       <c r="M293">
-        <v>0.5444229894428867</v>
+        <v>0.5444229894428864</v>
       </c>
       <c r="N293">
         <v>0.5</v>
@@ -13344,10 +13344,10 @@
         <v>-0.2030955819790096</v>
       </c>
       <c r="L294">
-        <v>-2.063470671052168</v>
+        <v>-2.063470671052169</v>
       </c>
       <c r="M294">
-        <v>0.4111209198942614</v>
+        <v>0.4111209198942616</v>
       </c>
       <c r="N294">
         <v>0.5</v>
@@ -13435,7 +13435,7 @@
         <v>-2.240733088105614</v>
       </c>
       <c r="M296">
-        <v>0.3722439612852372</v>
+        <v>0.3722439612852375</v>
       </c>
       <c r="N296">
         <v>0.5</v>
@@ -13479,7 +13479,7 @@
         <v>-2.578637496839119</v>
       </c>
       <c r="M297">
-        <v>0.5440183160945824</v>
+        <v>0.5440183160945823</v>
       </c>
       <c r="N297">
         <v>0.5</v>
@@ -13523,7 +13523,7 @@
         <v>-3.243888215631145</v>
       </c>
       <c r="M298">
-        <v>0.9171848726415047</v>
+        <v>0.9171848726415045</v>
       </c>
       <c r="N298">
         <v>0.5</v>
@@ -13564,10 +13564,10 @@
         <v>-0.4034255855048658</v>
       </c>
       <c r="L299">
-        <v>-2.66822775173181</v>
+        <v>-2.668227751731811</v>
       </c>
       <c r="M299">
-        <v>0.6479317328584139</v>
+        <v>0.6479317328584142</v>
       </c>
       <c r="N299">
         <v>0.5</v>
@@ -13608,10 +13608,10 @@
         <v>-0.3963832332487196</v>
       </c>
       <c r="L300">
-        <v>-2.598363317817791</v>
+        <v>-2.59836331781779</v>
       </c>
       <c r="M300">
-        <v>0.6052033335232841</v>
+        <v>0.6052033335232837</v>
       </c>
       <c r="N300">
         <v>0.5</v>
@@ -13655,7 +13655,7 @@
         <v>-2.331426355797622</v>
       </c>
       <c r="M301">
-        <v>0.3125649161588763</v>
+        <v>0.3125649161588764</v>
       </c>
       <c r="N301">
         <v>0.5</v>
@@ -13696,7 +13696,7 @@
         <v>-0.4774698660514634</v>
       </c>
       <c r="L302">
-        <v>-1.677016868143627</v>
+        <v>-1.677016868143626</v>
       </c>
       <c r="M302">
         <v>0</v>
@@ -13740,10 +13740,10 @@
         <v>-0.435219599961517</v>
       </c>
       <c r="L303">
-        <v>-1.919798305311661</v>
+        <v>-1.919798305311662</v>
       </c>
       <c r="M303">
-        <v>0.1549466314240382</v>
+        <v>0.1549466314240387</v>
       </c>
       <c r="N303">
         <v>0.5</v>
@@ -13784,7 +13784,7 @@
         <v>-0.5224174232258998</v>
       </c>
       <c r="L304">
-        <v>-1.649021696652594</v>
+        <v>-1.649021696652593</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -13828,7 +13828,7 @@
         <v>-0.6301874119122715</v>
       </c>
       <c r="L305">
-        <v>-0.8967471831889881</v>
+        <v>-0.8967471831889884</v>
       </c>
       <c r="M305">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>-1.335222155870841</v>
       </c>
       <c r="M308">
-        <v>0.387891723621667</v>
+        <v>0.3878917236216669</v>
       </c>
       <c r="N308">
         <v>0.5</v>
@@ -14007,7 +14007,7 @@
         <v>-1.281028157163596</v>
       </c>
       <c r="M309">
-        <v>0.3750378758100579</v>
+        <v>0.3750378758100584</v>
       </c>
       <c r="N309">
         <v>0.5</v>
@@ -14051,7 +14051,7 @@
         <v>-1.192573195071365</v>
       </c>
       <c r="M310">
-        <v>0.3813697449725586</v>
+        <v>0.3813697449725585</v>
       </c>
       <c r="N310">
         <v>0.5</v>
@@ -14095,7 +14095,7 @@
         <v>-1.383411996046566</v>
       </c>
       <c r="M311">
-        <v>0.624720709009745</v>
+        <v>0.6247207090097447</v>
       </c>
       <c r="N311">
         <v>0.5</v>
@@ -14136,10 +14136,10 @@
         <v>-0.4808589198480538</v>
       </c>
       <c r="L312">
-        <v>-1.450037520630767</v>
+        <v>-1.450037520630766</v>
       </c>
       <c r="M312">
-        <v>0.6713348361713229</v>
+        <v>0.6713348361713223</v>
       </c>
       <c r="N312">
         <v>0.5</v>
@@ -14183,7 +14183,7 @@
         <v>-1.41159909182611</v>
       </c>
       <c r="M313">
-        <v>0.7950642905871362</v>
+        <v>0.7950642905871366</v>
       </c>
       <c r="N313">
         <v>0.5</v>
@@ -14271,7 +14271,7 @@
         <v>-1.669575584973869</v>
       </c>
       <c r="M315">
-        <v>0.9829797452443709</v>
+        <v>0.9829797452443713</v>
       </c>
       <c r="N315">
         <v>0.5</v>
@@ -14356,10 +14356,10 @@
         <v>-0.5695277258550785</v>
       </c>
       <c r="L317">
-        <v>-1.679315056925239</v>
+        <v>-1.679315056925238</v>
       </c>
       <c r="M317">
-        <v>0.9626726067592128</v>
+        <v>0.9626726067592097</v>
       </c>
       <c r="N317">
         <v>0.5</v>
@@ -14403,7 +14403,7 @@
         <v>-1.639459036129671</v>
       </c>
       <c r="M318">
-        <v>0.8838458148983608</v>
+        <v>0.8838458148983597</v>
       </c>
       <c r="N318">
         <v>0.5</v>
@@ -14447,7 +14447,7 @@
         <v>-1.508934084069748</v>
       </c>
       <c r="M319">
-        <v>0.625695025549631</v>
+        <v>0.6256950255496319</v>
       </c>
       <c r="N319">
         <v>0.5</v>
@@ -14488,7 +14488,7 @@
         <v>-0.5147783098920463</v>
       </c>
       <c r="L320">
-        <v>-1.742732838408434</v>
+        <v>-1.742732838408433</v>
       </c>
       <c r="M320">
         <v>1</v>
@@ -14532,10 +14532,10 @@
         <v>-0.3286163444922862</v>
       </c>
       <c r="L321">
-        <v>-1.558976447007877</v>
+        <v>-1.558976447007878</v>
       </c>
       <c r="M321">
-        <v>0.4450689689675822</v>
+        <v>0.4450689689675835</v>
       </c>
       <c r="N321">
         <v>0.5</v>
@@ -14623,7 +14623,7 @@
         <v>-1.283395005872445</v>
       </c>
       <c r="M323">
-        <v>0.103896214497372</v>
+        <v>0.1038962144973729</v>
       </c>
       <c r="N323">
         <v>0.5</v>
@@ -14664,7 +14664,7 @@
         <v>-0.2306386436668664</v>
       </c>
       <c r="L324">
-        <v>-0.6001556773668233</v>
+        <v>-0.6001556773668235</v>
       </c>
       <c r="M324">
         <v>0</v>
@@ -14752,7 +14752,7 @@
         <v>-0.133195040194946</v>
       </c>
       <c r="L326">
-        <v>0.5192844584900085</v>
+        <v>0.5192844584900077</v>
       </c>
       <c r="M326">
         <v>1</v>
@@ -14796,7 +14796,7 @@
         <v>-0.1701938493385154</v>
       </c>
       <c r="L327">
-        <v>0.2317631841308281</v>
+        <v>0.2317631841308279</v>
       </c>
       <c r="M327">
         <v>0</v>
@@ -14840,7 +14840,7 @@
         <v>-0.2058911198299681</v>
       </c>
       <c r="L328">
-        <v>-0.253969540498733</v>
+        <v>-0.2539695404987326</v>
       </c>
       <c r="M328">
         <v>0</v>
@@ -14884,7 +14884,7 @@
         <v>-0.1718862167998636</v>
       </c>
       <c r="L329">
-        <v>0.2119904580994949</v>
+        <v>0.2119904580994948</v>
       </c>
       <c r="M329">
         <v>0</v>
@@ -14928,7 +14928,7 @@
         <v>-0.1752019700802163</v>
       </c>
       <c r="L330">
-        <v>0.1800721450108982</v>
+        <v>0.180072145010898</v>
       </c>
       <c r="M330">
         <v>0</v>
@@ -14972,10 +14972,10 @@
         <v>-0.1655405876522872</v>
       </c>
       <c r="L331">
-        <v>0.3375367676088242</v>
+        <v>0.3375367676088249</v>
       </c>
       <c r="M331">
-        <v>0.4642066821893925</v>
+        <v>0.4642066821893962</v>
       </c>
       <c r="N331">
         <v>0.5</v>
@@ -15016,10 +15016,10 @@
         <v>-0.1147967741848595</v>
       </c>
       <c r="L332">
-        <v>0.4674505968726166</v>
+        <v>0.4674505968726162</v>
       </c>
       <c r="M332">
-        <v>0.8471934550790298</v>
+        <v>0.8471934550790307</v>
       </c>
       <c r="N332">
         <v>0.5</v>
@@ -15060,7 +15060,7 @@
         <v>-0.1232792371019942</v>
       </c>
       <c r="L333">
-        <v>0.624897445104132</v>
+        <v>0.6248974451041323</v>
       </c>
       <c r="M333">
         <v>1</v>
@@ -15104,10 +15104,10 @@
         <v>-0.08246146708756126</v>
       </c>
       <c r="L334">
-        <v>0.5830022943595441</v>
+        <v>0.5830022943595422</v>
       </c>
       <c r="M334">
-        <v>0.9058166189382509</v>
+        <v>0.9058166189382463</v>
       </c>
       <c r="N334">
         <v>0.5</v>
@@ -15148,10 +15148,10 @@
         <v>0.09147408555604612</v>
       </c>
       <c r="L335">
-        <v>0.3737542571082579</v>
+        <v>0.3737542571082572</v>
       </c>
       <c r="M335">
-        <v>0.4354116370106749</v>
+        <v>0.4354116370106735</v>
       </c>
       <c r="N335">
         <v>0.5</v>
@@ -15192,7 +15192,7 @@
         <v>0.1876126481736497</v>
       </c>
       <c r="L336">
-        <v>0.1435608298034576</v>
+        <v>0.1435608298034577</v>
       </c>
       <c r="M336">
         <v>0</v>
@@ -15236,7 +15236,7 @@
         <v>0.04940460841558999</v>
       </c>
       <c r="L337">
-        <v>-0.5971363693501709</v>
+        <v>-0.5971363693501704</v>
       </c>
       <c r="M337">
         <v>1</v>
@@ -15324,10 +15324,10 @@
         <v>-0.05510615977824915</v>
       </c>
       <c r="L339">
-        <v>-0.2109788433209192</v>
+        <v>-0.210978843320919</v>
       </c>
       <c r="M339">
-        <v>0.1271430668485271</v>
+        <v>0.1271430668485268</v>
       </c>
       <c r="N339">
         <v>0.5</v>
@@ -15368,10 +15368,10 @@
         <v>0.03142802901427326</v>
       </c>
       <c r="L340">
-        <v>-0.3081446519955729</v>
+        <v>-0.3081446519955731</v>
       </c>
       <c r="M340">
-        <v>0.3467732541429126</v>
+        <v>0.3467732541429132</v>
       </c>
       <c r="N340">
         <v>0.5</v>
@@ -15412,10 +15412,10 @@
         <v>-0.01507278177755961</v>
       </c>
       <c r="L341">
-        <v>-0.5033689631486382</v>
+        <v>-0.5033689631486381</v>
       </c>
       <c r="M341">
-        <v>0.7880514425078475</v>
+        <v>0.7880514425078481</v>
       </c>
       <c r="N341">
         <v>0.5</v>
@@ -15456,10 +15456,10 @@
         <v>-0.02190086369118633</v>
       </c>
       <c r="L342">
-        <v>-0.448850708733701</v>
+        <v>-0.4488507087337009</v>
       </c>
       <c r="M342">
-        <v>0.6648202916386319</v>
+        <v>0.664820291638632</v>
       </c>
       <c r="N342">
         <v>0.5</v>
@@ -15500,10 +15500,10 @@
         <v>0.163565250780352</v>
       </c>
       <c r="L343">
-        <v>-0.3014050073634685</v>
+        <v>-0.3014050073634683</v>
       </c>
       <c r="M343">
-        <v>0.3315391977084826</v>
+        <v>0.3315391977084824</v>
       </c>
       <c r="N343">
         <v>0.5</v>
@@ -15544,10 +15544,10 @@
         <v>0.1068462298144994</v>
       </c>
       <c r="L344">
-        <v>-0.5000876742447006</v>
+        <v>-0.5000876742447004</v>
       </c>
       <c r="M344">
-        <v>0.7806345321113944</v>
+        <v>0.7806345321113948</v>
       </c>
       <c r="N344">
         <v>0.5</v>
@@ -15588,10 +15588,10 @@
         <v>0.1304680827819285</v>
       </c>
       <c r="L345">
-        <v>-0.5002210856938203</v>
+        <v>-0.5002210856938204</v>
       </c>
       <c r="M345">
-        <v>0.7809360906735785</v>
+        <v>0.7809360906735795</v>
       </c>
       <c r="N345">
         <v>0.5</v>
@@ -15632,10 +15632,10 @@
         <v>0.1818695628295589</v>
       </c>
       <c r="L346">
-        <v>-0.4449428745449917</v>
+        <v>-0.4449428745449922</v>
       </c>
       <c r="M346">
-        <v>0.6559871602471621</v>
+        <v>0.6559871602471637</v>
       </c>
       <c r="N346">
         <v>0.5</v>
@@ -15676,7 +15676,7 @@
         <v>0.3061458540914223</v>
       </c>
       <c r="L347">
-        <v>-0.5448503487457547</v>
+        <v>-0.5448503487457543</v>
       </c>
       <c r="M347">
         <v>1</v>
@@ -15764,10 +15764,10 @@
         <v>0.2945649786830558</v>
       </c>
       <c r="L349">
-        <v>-0.5123263746642461</v>
+        <v>-0.5123263746642462</v>
       </c>
       <c r="M349">
-        <v>0.7244012469475356</v>
+        <v>0.7244012469475363</v>
       </c>
       <c r="N349">
         <v>0.5</v>
@@ -15808,10 +15808,10 @@
         <v>0.2339062383120279</v>
       </c>
       <c r="L350">
-        <v>-0.3334740434463318</v>
+        <v>-0.3334740434463314</v>
       </c>
       <c r="M350">
-        <v>0.1101398593424823</v>
+        <v>0.1101398593424817</v>
       </c>
       <c r="N350">
         <v>0.5</v>
@@ -15940,7 +15940,7 @@
         <v>-0.483601800139936</v>
       </c>
       <c r="L353">
-        <v>-1.309496661073408</v>
+        <v>-1.309496661073407</v>
       </c>
       <c r="M353">
         <v>1</v>
@@ -16072,7 +16072,7 @@
         <v>-0.7512049988829604</v>
       </c>
       <c r="L356">
-        <v>-2.137532218029121</v>
+        <v>-2.13753221802912</v>
       </c>
       <c r="M356">
         <v>1</v>
@@ -16116,10 +16116,10 @@
         <v>-0.5772247995329257</v>
       </c>
       <c r="L357">
-        <v>-1.883315202786211</v>
+        <v>-1.88331520278621</v>
       </c>
       <c r="M357">
-        <v>0.8590860212688533</v>
+        <v>0.8590860212688534</v>
       </c>
       <c r="N357">
         <v>0.5</v>
@@ -16163,7 +16163,7 @@
         <v>-1.738372668511281</v>
       </c>
       <c r="M358">
-        <v>0.7787435265993287</v>
+        <v>0.7787435265993292</v>
       </c>
       <c r="N358">
         <v>0.5</v>
@@ -16207,7 +16207,7 @@
         <v>-1.891605151041786</v>
       </c>
       <c r="M359">
-        <v>0.8636811880835221</v>
+        <v>0.8636811880835226</v>
       </c>
       <c r="N359">
         <v>0.5</v>
@@ -16248,10 +16248,10 @@
         <v>-0.6760397015252356</v>
       </c>
       <c r="L360">
-        <v>-1.942489517204798</v>
+        <v>-1.942489517204799</v>
       </c>
       <c r="M360">
-        <v>0.7986231049907989</v>
+        <v>0.7986231049908001</v>
       </c>
       <c r="N360">
         <v>0.5</v>
@@ -16295,7 +16295,7 @@
         <v>-1.988644653232237</v>
       </c>
       <c r="M361">
-        <v>0.8228551673480319</v>
+        <v>0.8228551673480333</v>
       </c>
       <c r="N361">
         <v>0.5</v>
@@ -16339,7 +16339,7 @@
         <v>-1.831254261896148</v>
       </c>
       <c r="M362">
-        <v>0.6301149708365067</v>
+        <v>0.6301149708365081</v>
       </c>
       <c r="N362">
         <v>0.5</v>
@@ -16383,7 +16383,7 @@
         <v>-1.956360628243703</v>
       </c>
       <c r="M363">
-        <v>0.7333637061289489</v>
+        <v>0.7333637061289506</v>
       </c>
       <c r="N363">
         <v>0.5</v>
@@ -16427,7 +16427,7 @@
         <v>-1.982039302291148</v>
       </c>
       <c r="M364">
-        <v>0.6104492152929842</v>
+        <v>0.6104492152929856</v>
       </c>
       <c r="N364">
         <v>0.5</v>
@@ -16471,7 +16471,7 @@
         <v>-1.918537393210604</v>
       </c>
       <c r="M365">
-        <v>0.4513601764431056</v>
+        <v>0.4513601764431072</v>
       </c>
       <c r="N365">
         <v>0.5</v>
@@ -16512,7 +16512,7 @@
         <v>-0.5882077901438137</v>
       </c>
       <c r="L366">
-        <v>-1.992647661796381</v>
+        <v>-1.99264766179638</v>
       </c>
       <c r="M366">
         <v>1</v>
@@ -16556,7 +16556,7 @@
         <v>-0.5360108261917316</v>
       </c>
       <c r="L367">
-        <v>-1.585125308179712</v>
+        <v>-1.585125308179711</v>
       </c>
       <c r="M367">
         <v>0</v>
@@ -16600,10 +16600,10 @@
         <v>-0.4843640916670949</v>
       </c>
       <c r="L368">
-        <v>-1.67621497765642</v>
+        <v>-1.676214977656419</v>
       </c>
       <c r="M368">
-        <v>0.2235206698928482</v>
+        <v>0.2235206698928484</v>
       </c>
       <c r="N368">
         <v>0.5</v>
@@ -16647,7 +16647,7 @@
         <v>-1.653589989091154</v>
       </c>
       <c r="M369">
-        <v>0.1680022710504918</v>
+        <v>0.1680022710504924</v>
       </c>
       <c r="N369">
         <v>0.5</v>
@@ -16688,7 +16688,7 @@
         <v>-0.3972428659559805</v>
       </c>
       <c r="L370">
-        <v>-1.454124631568315</v>
+        <v>-1.454124631568314</v>
       </c>
       <c r="M370">
         <v>0</v>
@@ -16820,10 +16820,10 @@
         <v>-0.3899687540218711</v>
       </c>
       <c r="L373">
-        <v>-1.546216187848851</v>
+        <v>-1.546216187848852</v>
       </c>
       <c r="M373">
-        <v>0.4040958629393873</v>
+        <v>0.4040958629393888</v>
       </c>
       <c r="N373">
         <v>0.5</v>
@@ -16864,10 +16864,10 @@
         <v>-0.3815030611934387</v>
       </c>
       <c r="L374">
-        <v>-1.425008466721259</v>
+        <v>-1.425008466721258</v>
       </c>
       <c r="M374">
-        <v>0.2423057861221088</v>
+        <v>0.2423057861221091</v>
       </c>
       <c r="N374">
         <v>0.5</v>
@@ -16911,7 +16911,7 @@
         <v>-1.439304927737109</v>
       </c>
       <c r="M375">
-        <v>0.2613889394431317</v>
+        <v>0.2613889394431323</v>
       </c>
       <c r="N375">
         <v>0.5</v>
@@ -17084,7 +17084,7 @@
         <v>-0.3812136585914747</v>
       </c>
       <c r="L379">
-        <v>-1.976569394760229</v>
+        <v>-1.97656939476023</v>
       </c>
       <c r="M379">
         <v>1</v>
@@ -17216,7 +17216,7 @@
         <v>-0.1946482250634937</v>
       </c>
       <c r="L382">
-        <v>-0.5663093486340138</v>
+        <v>-0.5663093486340146</v>
       </c>
       <c r="M382">
         <v>0</v>
@@ -17260,7 +17260,7 @@
         <v>-0.1760802410687307</v>
       </c>
       <c r="L383">
-        <v>-0.2242655394400442</v>
+        <v>-0.224265539440044</v>
       </c>
       <c r="M383">
         <v>0</v>
@@ -17304,10 +17304,10 @@
         <v>-0.128910120216216</v>
       </c>
       <c r="L384">
-        <v>-0.2537122682618939</v>
+        <v>-0.2537122682618941</v>
       </c>
       <c r="M384">
-        <v>0.0147411306541994</v>
+        <v>0.01474113065419961</v>
       </c>
       <c r="N384">
         <v>0.5</v>
@@ -17348,7 +17348,7 @@
         <v>-0.1127423281094172</v>
       </c>
       <c r="L385">
-        <v>-0.0965269665959223</v>
+        <v>-0.0965269665959224</v>
       </c>
       <c r="M385">
         <v>0</v>
@@ -17392,10 +17392,10 @@
         <v>-0.02068573643100499</v>
       </c>
       <c r="L386">
-        <v>-0.5812966226079882</v>
+        <v>-0.5812966226079879</v>
       </c>
       <c r="M386">
-        <v>0.228091675160813</v>
+        <v>0.2280916751608128</v>
       </c>
       <c r="N386">
         <v>0.5</v>
@@ -17436,10 +17436,10 @@
         <v>-0.1180372383399429</v>
       </c>
       <c r="L387">
-        <v>-0.2838505766478488</v>
+        <v>-0.2838505766478478</v>
       </c>
       <c r="M387">
-        <v>0.08813867675919745</v>
+        <v>0.08813867675919695</v>
       </c>
       <c r="N387">
         <v>0.5</v>
@@ -17480,10 +17480,10 @@
         <v>0.0919325131914222</v>
       </c>
       <c r="L388">
-        <v>-1.019066356712896</v>
+        <v>-1.019066356712895</v>
       </c>
       <c r="M388">
-        <v>0.4340691548737898</v>
+        <v>0.4340691548737894</v>
       </c>
       <c r="N388">
         <v>0.5</v>
@@ -17524,7 +17524,7 @@
         <v>0.08263346720238005</v>
       </c>
       <c r="L389">
-        <v>-0.568276254035162</v>
+        <v>-0.5682762540351622</v>
       </c>
       <c r="M389">
         <v>0.2219653889088674</v>
@@ -17571,7 +17571,7 @@
         <v>-1.003050592985064</v>
       </c>
       <c r="M390">
-        <v>0.982639479788715</v>
+        <v>0.9826394797887165</v>
       </c>
       <c r="N390">
         <v>0.5</v>
@@ -17612,7 +17612,7 @@
         <v>-0.00518914610716903</v>
       </c>
       <c r="L391">
-        <v>-1.224671173682917</v>
+        <v>-1.224671173682918</v>
       </c>
       <c r="M391">
         <v>1</v>
@@ -17656,10 +17656,10 @@
         <v>-0.1357790088324248</v>
       </c>
       <c r="L392">
-        <v>-0.9530651353182618</v>
+        <v>-0.953065135318261</v>
       </c>
       <c r="M392">
-        <v>0.7592452838401083</v>
+        <v>0.7592452838401073</v>
       </c>
       <c r="N392">
         <v>0.5</v>
@@ -17700,7 +17700,7 @@
         <v>-0.1407765062097825</v>
       </c>
       <c r="L393">
-        <v>-0.8654619603297063</v>
+        <v>-0.8654619603297066</v>
       </c>
       <c r="M393">
         <v>0.6815928220021332</v>
@@ -17876,10 +17876,10 @@
         <v>-0.3378080335526575</v>
       </c>
       <c r="L397">
-        <v>-2.203654105432759</v>
+        <v>-2.203654105432758</v>
       </c>
       <c r="M397">
-        <v>0.9887136843620266</v>
+        <v>0.9887136843620258</v>
       </c>
       <c r="N397">
         <v>0.5</v>
@@ -17920,7 +17920,7 @@
         <v>-0.436510077820126</v>
       </c>
       <c r="L398">
-        <v>-2.065021161427459</v>
+        <v>-2.06502116142746</v>
       </c>
       <c r="M398">
         <v>0.9048992382239091</v>
@@ -17967,7 +17967,7 @@
         <v>-2.065095598409672</v>
       </c>
       <c r="M399">
-        <v>0.884124696041806</v>
+        <v>0.8841246960418057</v>
       </c>
       <c r="N399">
         <v>0.5</v>
@@ -18008,10 +18008,10 @@
         <v>-0.6665880397766974</v>
       </c>
       <c r="L400">
-        <v>-1.561280532277685</v>
+        <v>-1.561280532277686</v>
       </c>
       <c r="M400">
-        <v>0.5128152161591378</v>
+        <v>0.5128152161591384</v>
       </c>
       <c r="N400">
         <v>0.5</v>
@@ -18055,7 +18055,7 @@
         <v>-1.732951766230696</v>
       </c>
       <c r="M401">
-        <v>0.6393361578199198</v>
+        <v>0.6393361578199196</v>
       </c>
       <c r="N401">
         <v>0.5</v>
@@ -18096,10 +18096,10 @@
         <v>-0.4060257548874591</v>
       </c>
       <c r="L402">
-        <v>-2.122399584973008</v>
+        <v>-2.122399584973009</v>
       </c>
       <c r="M402">
-        <v>0.9263574811972656</v>
+        <v>0.9263574811972659</v>
       </c>
       <c r="N402">
         <v>0.5</v>
@@ -18143,7 +18143,7 @@
         <v>-2.073162960264761</v>
       </c>
       <c r="M403">
-        <v>0.774357292085486</v>
+        <v>0.7743572920854858</v>
       </c>
       <c r="N403">
         <v>0.5</v>
@@ -18187,7 +18187,7 @@
         <v>-2.056296935953149</v>
       </c>
       <c r="M404">
-        <v>0.7488429782506744</v>
+        <v>0.7488429782506729</v>
       </c>
       <c r="N404">
         <v>0.5</v>
@@ -18228,10 +18228,10 @@
         <v>-0.4405571600411498</v>
       </c>
       <c r="L405">
-        <v>-2.090133441772276</v>
+        <v>-2.090133441772275</v>
       </c>
       <c r="M405">
-        <v>0.8000296250022898</v>
+        <v>0.8000296250022882</v>
       </c>
       <c r="N405">
         <v>0.5</v>
@@ -18275,7 +18275,7 @@
         <v>-1.966928299410928</v>
       </c>
       <c r="M406">
-        <v>0.6314826513501618</v>
+        <v>0.6314826513501622</v>
       </c>
       <c r="N406">
         <v>0.5</v>
@@ -18319,7 +18319,7 @@
         <v>-1.997540902947709</v>
       </c>
       <c r="M407">
-        <v>0.7774827259464033</v>
+        <v>0.7774827259464018</v>
       </c>
       <c r="N407">
         <v>0.5</v>
@@ -18363,7 +18363,7 @@
         <v>-1.999397544211871</v>
       </c>
       <c r="M408">
-        <v>0.7807915447349375</v>
+        <v>0.7807915447349351</v>
       </c>
       <c r="N408">
         <v>0.5</v>
@@ -18404,10 +18404,10 @@
         <v>-0.437020928384978</v>
       </c>
       <c r="L409">
-        <v>-2.01844915260554</v>
+        <v>-2.018449152605539</v>
       </c>
       <c r="M409">
-        <v>0.8147444256826691</v>
+        <v>0.8147444256826667</v>
       </c>
       <c r="N409">
         <v>0.5</v>
@@ -18451,7 +18451,7 @@
         <v>-2.094491836063201</v>
       </c>
       <c r="M410">
-        <v>0.9283402099928751</v>
+        <v>0.928340209992873</v>
       </c>
       <c r="N410">
         <v>0.5</v>
@@ -18580,7 +18580,7 @@
         <v>-0.53726100513286</v>
       </c>
       <c r="L413">
-        <v>-2.384897862913926</v>
+        <v>-2.384897862913925</v>
       </c>
       <c r="M413">
         <v>1</v>
@@ -18627,7 +18627,7 @@
         <v>-2.244337225761278</v>
       </c>
       <c r="M414">
-        <v>0.6637060460225591</v>
+        <v>0.6637060460225606</v>
       </c>
       <c r="N414">
         <v>0.5</v>
@@ -18671,7 +18671,7 @@
         <v>-2.297462533697169</v>
       </c>
       <c r="M415">
-        <v>0.7908093391203842</v>
+        <v>0.7908093391203848</v>
       </c>
       <c r="N415">
         <v>0.5</v>
@@ -18712,10 +18712,10 @@
         <v>-0.5938639623324475</v>
       </c>
       <c r="L416">
-        <v>-2.270506294730317</v>
+        <v>-2.270506294730316</v>
       </c>
       <c r="M416">
-        <v>0.7046869425204446</v>
+        <v>0.7046869425204451</v>
       </c>
       <c r="N416">
         <v>0.5</v>
@@ -18756,7 +18756,7 @@
         <v>-0.5913675900326374</v>
       </c>
       <c r="L417">
-        <v>-2.390043637065021</v>
+        <v>-2.39004363706502</v>
       </c>
       <c r="M417">
         <v>1</v>
@@ -18800,7 +18800,7 @@
         <v>-0.5803454485605624</v>
       </c>
       <c r="L418">
-        <v>-2.165113251791019</v>
+        <v>-2.165113251791018</v>
       </c>
       <c r="M418">
         <v>0.394688579403474</v>
@@ -18888,10 +18888,10 @@
         <v>-0.5887994367740459</v>
       </c>
       <c r="L420">
-        <v>-2.624791621170727</v>
+        <v>-2.624791621170726</v>
       </c>
       <c r="M420">
-        <v>0.8290038144577335</v>
+        <v>0.8290038144577321</v>
       </c>
       <c r="N420">
         <v>0.5</v>
@@ -18932,10 +18932,10 @@
         <v>-0.5820074854689776</v>
       </c>
       <c r="L421">
-        <v>-2.423688992320308</v>
+        <v>-2.423688992320309</v>
       </c>
       <c r="M421">
-        <v>0.4911434492777996</v>
+        <v>0.4911434492778007</v>
       </c>
       <c r="N421">
         <v>0.5</v>
@@ -19064,7 +19064,7 @@
         <v>-0.1470179209991985</v>
       </c>
       <c r="L424">
-        <v>-2.022005158349637</v>
+        <v>-2.022005158349638</v>
       </c>
       <c r="M424">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>-0.1139185769558706</v>
       </c>
       <c r="L425">
-        <v>-1.883011109835145</v>
+        <v>-1.883011109835144</v>
       </c>
       <c r="M425">
         <v>0</v>
@@ -19152,7 +19152,7 @@
         <v>-0.09663027477076565</v>
       </c>
       <c r="L426">
-        <v>-1.198559262666148</v>
+        <v>-1.198559262666149</v>
       </c>
       <c r="M426">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>-0.08269214841757215</v>
       </c>
       <c r="L427">
-        <v>-0.7541654362042682</v>
+        <v>-0.7541654362042685</v>
       </c>
       <c r="M427">
         <v>0</v>
@@ -19240,7 +19240,7 @@
         <v>-0.08324253246725886</v>
       </c>
       <c r="L428">
-        <v>-0.7219094968801196</v>
+        <v>-0.7219094968801192</v>
       </c>
       <c r="M428">
         <v>0</v>
@@ -19284,10 +19284,10 @@
         <v>-0.1142982550345666</v>
       </c>
       <c r="L429">
-        <v>-1.067780183683932</v>
+        <v>-1.067780183683931</v>
       </c>
       <c r="M429">
-        <v>0.1238046295826515</v>
+        <v>0.1238046295826513</v>
       </c>
       <c r="N429">
         <v>0.5</v>
@@ -19328,10 +19328,10 @@
         <v>0.02265957088805904</v>
       </c>
       <c r="L430">
-        <v>-0.9489058826420349</v>
+        <v>-0.9489058826420347</v>
       </c>
       <c r="M430">
-        <v>0.08125349885980794</v>
+        <v>0.08125349885980802</v>
       </c>
       <c r="N430">
         <v>0.5</v>
@@ -19372,7 +19372,7 @@
         <v>-0.0006239446363022204</v>
       </c>
       <c r="L431">
-        <v>-1.100837196006279</v>
+        <v>-1.100837196006278</v>
       </c>
       <c r="M431">
         <v>0.1356374079065304</v>
@@ -19419,7 +19419,7 @@
         <v>-0.9478759890940387</v>
       </c>
       <c r="M432">
-        <v>0.08088484781742701</v>
+        <v>0.08088484781742716</v>
       </c>
       <c r="N432">
         <v>0.5</v>
@@ -19463,7 +19463,7 @@
         <v>-1.270823617577178</v>
       </c>
       <c r="M433">
-        <v>0.4222105626263013</v>
+        <v>0.4222105626263014</v>
       </c>
       <c r="N433">
         <v>0.5</v>
@@ -19507,7 +19507,7 @@
         <v>-1.107494985498446</v>
       </c>
       <c r="M434">
-        <v>0.3320859124784131</v>
+        <v>0.3320859124784136</v>
       </c>
       <c r="N434">
         <v>0.5</v>
@@ -19551,7 +19551,7 @@
         <v>-1.227723853567056</v>
       </c>
       <c r="M435">
-        <v>0.92148177212969</v>
+        <v>0.9214817721296901</v>
       </c>
       <c r="N435">
         <v>0.5</v>
@@ -19592,10 +19592,10 @@
         <v>-0.2098700607920022</v>
       </c>
       <c r="L436">
-        <v>-1.211633793417375</v>
+        <v>-1.211633793417374</v>
       </c>
       <c r="M436">
-        <v>0.8921692448271523</v>
+        <v>0.8921692448271517</v>
       </c>
       <c r="N436">
         <v>0.5</v>
@@ -19680,10 +19680,10 @@
         <v>-0.2757649542702806</v>
       </c>
       <c r="L438">
-        <v>-1.388027958058023</v>
+        <v>-1.388027958058022</v>
       </c>
       <c r="M438">
-        <v>0.8293415685573552</v>
+        <v>0.8293415685573543</v>
       </c>
       <c r="N438">
         <v>0.5</v>
@@ -19768,10 +19768,10 @@
         <v>-0.2503925805350066</v>
       </c>
       <c r="L440">
-        <v>-1.209619878995749</v>
+        <v>-1.20961987899575</v>
       </c>
       <c r="M440">
-        <v>0.4931821359843803</v>
+        <v>0.4931821359843811</v>
       </c>
       <c r="N440">
         <v>0.5</v>
@@ -19815,7 +19815,7 @@
         <v>-1.257161912372786</v>
       </c>
       <c r="M441">
-        <v>0.5827616160583268</v>
+        <v>0.5827616160583272</v>
       </c>
       <c r="N441">
         <v>0.5</v>
@@ -19859,7 +19859,7 @@
         <v>-1.182625683779601</v>
       </c>
       <c r="M442">
-        <v>0.2024509960290297</v>
+        <v>0.2024509960290303</v>
       </c>
       <c r="N442">
         <v>0.5</v>
@@ -19903,7 +19903,7 @@
         <v>-1.201354951536254</v>
       </c>
       <c r="M443">
-        <v>0.2529198323233405</v>
+        <v>0.2529198323233411</v>
       </c>
       <c r="N443">
         <v>0.5</v>
@@ -19944,7 +19944,7 @@
         <v>-0.3375764205592038</v>
       </c>
       <c r="L444">
-        <v>-1.514959669288389</v>
+        <v>-1.51495966928839</v>
       </c>
       <c r="M444">
         <v>1</v>
@@ -20079,7 +20079,7 @@
         <v>-1.619547866319339</v>
       </c>
       <c r="M447">
-        <v>0.8534213614712607</v>
+        <v>0.8534213614712597</v>
       </c>
       <c r="N447">
         <v>0.5</v>
@@ -20120,7 +20120,7 @@
         <v>-0.3047670515159742</v>
       </c>
       <c r="L448">
-        <v>-1.748559432887464</v>
+        <v>-1.748559432887465</v>
       </c>
       <c r="M448">
         <v>1</v>
@@ -20296,7 +20296,7 @@
         <v>-0.2562962333686259</v>
       </c>
       <c r="L452">
-        <v>-2.760343235340345</v>
+        <v>-2.760343235340346</v>
       </c>
       <c r="M452">
         <v>1</v>
@@ -20340,10 +20340,10 @@
         <v>-0.5859748054181189</v>
       </c>
       <c r="L453">
-        <v>-1.639861378321923</v>
+        <v>-1.639861378321924</v>
       </c>
       <c r="M453">
-        <v>0.1002917594532667</v>
+        <v>0.1002917594532671</v>
       </c>
       <c r="N453">
         <v>0.5</v>
@@ -20384,10 +20384,10 @@
         <v>-0.4516474438024958</v>
       </c>
       <c r="L454">
-        <v>-2.574612489353161</v>
+        <v>-2.574612489353162</v>
       </c>
       <c r="M454">
-        <v>0.8371918829346471</v>
+        <v>0.8371918829346476</v>
       </c>
       <c r="N454">
         <v>0.5</v>
@@ -20428,10 +20428,10 @@
         <v>-0.3755427201163858</v>
       </c>
       <c r="L455">
-        <v>-2.197004620598615</v>
+        <v>-2.197004620598614</v>
       </c>
       <c r="M455">
-        <v>0.5061878492501516</v>
+        <v>0.5061878492501509</v>
       </c>
       <c r="N455">
         <v>0.5</v>
@@ -20475,7 +20475,7 @@
         <v>-2.607536200731368</v>
       </c>
       <c r="M456">
-        <v>0.8660521958989799</v>
+        <v>0.8660521958989792</v>
       </c>
       <c r="N456">
         <v>0.5</v>
@@ -20516,7 +20516,7 @@
         <v>-0.3062384776528874</v>
       </c>
       <c r="L457">
-        <v>-3.132171299633364</v>
+        <v>-3.132171299633363</v>
       </c>
       <c r="M457">
         <v>1</v>
@@ -20607,7 +20607,7 @@
         <v>-2.548916649706004</v>
       </c>
       <c r="M459">
-        <v>0.5817105825230119</v>
+        <v>0.5817105825230113</v>
       </c>
       <c r="N459">
         <v>0.5</v>
@@ -20648,10 +20648,10 @@
         <v>-0.2392244874428011</v>
       </c>
       <c r="L460">
-        <v>-3.139761116373664</v>
+        <v>-3.139761116373663</v>
       </c>
       <c r="M460">
-        <v>0.9597959308016062</v>
+        <v>0.9597959308016056</v>
       </c>
       <c r="N460">
         <v>0.5</v>
@@ -20695,7 +20695,7 @@
         <v>-2.715332286869175</v>
       </c>
       <c r="M461">
-        <v>0.6882010680660249</v>
+        <v>0.6882010680660242</v>
       </c>
       <c r="N461">
         <v>0.5</v>
@@ -20736,10 +20736,10 @@
         <v>-0.0994065583255976</v>
       </c>
       <c r="L462">
-        <v>-2.781405003134175</v>
+        <v>-2.781405003134176</v>
       </c>
       <c r="M462">
-        <v>0.7304814436133462</v>
+        <v>0.7304814436133461</v>
       </c>
       <c r="N462">
         <v>0.5</v>
@@ -20780,10 +20780,10 @@
         <v>0.002873155060382992</v>
       </c>
       <c r="L463">
-        <v>-2.450930026199095</v>
+        <v>-2.450930026199096</v>
       </c>
       <c r="M463">
-        <v>0.2525152316416677</v>
+        <v>0.2525152316416692</v>
       </c>
       <c r="N463">
         <v>0.5</v>
@@ -20824,10 +20824,10 @@
         <v>-0.04733170916681973</v>
       </c>
       <c r="L464">
-        <v>-2.769173833053339</v>
+        <v>-2.76917383305334</v>
       </c>
       <c r="M464">
-        <v>0.5689916724936096</v>
+        <v>0.5689916724936106</v>
       </c>
       <c r="N464">
         <v>0.5</v>
@@ -20868,10 +20868,10 @@
         <v>-0.02710972896514141</v>
       </c>
       <c r="L465">
-        <v>-2.571219342915595</v>
+        <v>-2.571219342915594</v>
       </c>
       <c r="M465">
-        <v>0.1600317430265488</v>
+        <v>0.1600317430265459</v>
       </c>
       <c r="N465">
         <v>0.5</v>
@@ -21000,7 +21000,7 @@
         <v>0.05932772481426545</v>
       </c>
       <c r="L468">
-        <v>-1.701724770575327</v>
+        <v>-1.701724770575328</v>
       </c>
       <c r="M468">
         <v>0</v>
@@ -21132,7 +21132,7 @@
         <v>0.1305501255553828</v>
       </c>
       <c r="L471">
-        <v>-0.1815656624887851</v>
+        <v>-0.181565662488785</v>
       </c>
       <c r="M471">
         <v>0</v>
@@ -21176,7 +21176,7 @@
         <v>0.128316067389622</v>
       </c>
       <c r="L472">
-        <v>-0.1473199457670684</v>
+        <v>-0.147319945767068</v>
       </c>
       <c r="M472">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0.4080732687997831</v>
       </c>
       <c r="L474">
-        <v>0.8909938174266985</v>
+        <v>0.8909938174266988</v>
       </c>
       <c r="M474">
         <v>1</v>
@@ -21308,10 +21308,10 @@
         <v>0.3737525037060903</v>
       </c>
       <c r="L475">
-        <v>0.6597598936974546</v>
+        <v>0.659759893697455</v>
       </c>
       <c r="M475">
-        <v>0.6600179671186762</v>
+        <v>0.6600179671186767</v>
       </c>
       <c r="N475">
         <v>0.5</v>
@@ -21396,10 +21396,10 @@
         <v>0.4100164602893973</v>
       </c>
       <c r="L477">
-        <v>1.030856214135941</v>
+        <v>1.030856214135942</v>
       </c>
       <c r="M477">
-        <v>0.8025101314334163</v>
+        <v>0.8025101314334169</v>
       </c>
       <c r="N477">
         <v>0.5</v>
@@ -21440,10 +21440,10 @@
         <v>0.343735874502232</v>
       </c>
       <c r="L478">
-        <v>0.8922542413308671</v>
+        <v>0.8922542413308669</v>
       </c>
       <c r="M478">
-        <v>0.6668641030562764</v>
+        <v>0.6668641030562767</v>
       </c>
       <c r="N478">
         <v>0.5</v>
@@ -21528,7 +21528,7 @@
         <v>0.3737137746519625</v>
       </c>
       <c r="L480">
-        <v>1.650714150807702</v>
+        <v>1.650714150807703</v>
       </c>
       <c r="M480">
         <v>1</v>
@@ -21572,7 +21572,7 @@
         <v>0.358660979027942</v>
       </c>
       <c r="L481">
-        <v>1.706434474984202</v>
+        <v>1.706434474984201</v>
       </c>
       <c r="M481">
         <v>1</v>
@@ -21704,10 +21704,10 @@
         <v>0.2738459700774121</v>
       </c>
       <c r="L484">
-        <v>1.845222698812028</v>
+        <v>1.845222698812027</v>
       </c>
       <c r="M484">
-        <v>0.7908534737062162</v>
+        <v>0.7908534737062155</v>
       </c>
       <c r="N484">
         <v>0.5</v>
@@ -21751,7 +21751,7 @@
         <v>1.74014700659246</v>
       </c>
       <c r="M485">
-        <v>0.669491874020378</v>
+        <v>0.6694918740203777</v>
       </c>
       <c r="N485">
         <v>0.5</v>
@@ -21792,10 +21792,10 @@
         <v>0.09672387476689513</v>
       </c>
       <c r="L486">
-        <v>1.56480582557992</v>
+        <v>1.564805825579919</v>
       </c>
       <c r="M486">
-        <v>0.5310433570869721</v>
+        <v>0.5310433570869716</v>
       </c>
       <c r="N486">
         <v>0.5</v>
@@ -21880,7 +21880,7 @@
         <v>-0.02393348696913526</v>
       </c>
       <c r="L488">
-        <v>0.8286700812242896</v>
+        <v>0.8286700812242903</v>
       </c>
       <c r="M488">
         <v>0</v>
@@ -21924,7 +21924,7 @@
         <v>-0.102198132433729</v>
       </c>
       <c r="L489">
-        <v>0.385556682932306</v>
+        <v>0.3855566829323061</v>
       </c>
       <c r="M489">
         <v>0</v>
@@ -22012,7 +22012,7 @@
         <v>-0.114642630923185</v>
       </c>
       <c r="L491">
-        <v>0.2445227955957132</v>
+        <v>0.2445227955957134</v>
       </c>
       <c r="M491">
         <v>0</v>
@@ -22056,10 +22056,10 @@
         <v>-0.02883230319290261</v>
       </c>
       <c r="L492">
-        <v>0.6876772527159405</v>
+        <v>0.6876772527159404</v>
       </c>
       <c r="M492">
-        <v>0.2315085368397177</v>
+        <v>0.2315085368397176</v>
       </c>
       <c r="N492">
         <v>0.5</v>
@@ -22103,7 +22103,7 @@
         <v>1.202141521594341</v>
       </c>
       <c r="M493">
-        <v>0.5982500055597346</v>
+        <v>0.5982500055597351</v>
       </c>
       <c r="N493">
         <v>0.5</v>
@@ -22232,7 +22232,7 @@
         <v>0.1219941170281964</v>
       </c>
       <c r="L496">
-        <v>1.901194179024968</v>
+        <v>1.901194179024969</v>
       </c>
       <c r="M496">
         <v>1</v>
@@ -22276,7 +22276,7 @@
         <v>0.1216498131824365</v>
       </c>
       <c r="L497">
-        <v>1.893063325629922</v>
+        <v>1.893063325629923</v>
       </c>
       <c r="M497">
         <v>0.9950920541778083</v>
@@ -22323,7 +22323,7 @@
         <v>1.796618149849583</v>
       </c>
       <c r="M498">
-        <v>0.9368758160360591</v>
+        <v>0.9368758160360584</v>
       </c>
       <c r="N498">
         <v>0.5</v>
@@ -22367,7 +22367,7 @@
         <v>1.740766570099613</v>
       </c>
       <c r="M499">
-        <v>0.9031626848088152</v>
+        <v>0.9031626848088147</v>
       </c>
       <c r="N499">
         <v>0.5</v>
@@ -22411,7 +22411,7 @@
         <v>1.668017351830822</v>
       </c>
       <c r="M500">
-        <v>0.8592498008195939</v>
+        <v>0.8592498008195937</v>
       </c>
       <c r="N500">
         <v>0.5</v>
@@ -22455,7 +22455,7 @@
         <v>1.444078846701261</v>
       </c>
       <c r="M501">
-        <v>0.6233135917485332</v>
+        <v>0.6233135917485333</v>
       </c>
       <c r="N501">
         <v>0.5</v>
@@ -22499,7 +22499,7 @@
         <v>1.386707334910277</v>
       </c>
       <c r="M502">
-        <v>0.2640227618822154</v>
+        <v>0.2640227618822151</v>
       </c>
       <c r="N502">
         <v>0.5</v>
@@ -22540,7 +22540,7 @@
         <v>-0.04953050081219477</v>
       </c>
       <c r="L503">
-        <v>1.287376287633214</v>
+        <v>1.287376287633213</v>
       </c>
       <c r="M503">
         <v>0</v>
@@ -22631,7 +22631,7 @@
         <v>1.178041633550215</v>
       </c>
       <c r="M505">
-        <v>0.1470818854024493</v>
+        <v>0.1470818854024482</v>
       </c>
       <c r="N505">
         <v>0.5</v>
@@ -22713,13 +22713,13 @@
         <v>0.02689398727053677</v>
       </c>
       <c r="K507">
-        <v>-0.04696520941212455</v>
+        <v>-0.04696520941212445</v>
       </c>
       <c r="L507">
         <v>1.309334829062608</v>
       </c>
       <c r="M507">
-        <v>0.3535536214474078</v>
+        <v>0.3535536214474085</v>
       </c>
       <c r="N507">
         <v>0.5</v>
@@ -22804,7 +22804,7 @@
         <v>0.1405278231914339</v>
       </c>
       <c r="L509">
-        <v>1.698444130423621</v>
+        <v>1.69844413042362</v>
       </c>
       <c r="M509">
         <v>1</v>
@@ -22848,10 +22848,10 @@
         <v>0.1030396706445865</v>
       </c>
       <c r="L510">
-        <v>1.60176135375769</v>
+        <v>1.601761353757691</v>
       </c>
       <c r="M510">
-        <v>0.8525308708880424</v>
+        <v>0.8525308708880434</v>
       </c>
       <c r="N510">
         <v>0.5</v>
@@ -22892,7 +22892,7 @@
         <v>0.1995259679096595</v>
       </c>
       <c r="L511">
-        <v>1.817279945581801</v>
+        <v>1.8172799455818</v>
       </c>
       <c r="M511">
         <v>1</v>
@@ -22936,7 +22936,7 @@
         <v>0.2355232164108231</v>
       </c>
       <c r="L512">
-        <v>1.933766958877868</v>
+        <v>1.933766958877869</v>
       </c>
       <c r="M512">
         <v>1</v>
@@ -23021,7 +23021,7 @@
         <v>0.01858804126584433</v>
       </c>
       <c r="K514">
-        <v>0.2650991853392364</v>
+        <v>0.2650991853392365</v>
       </c>
       <c r="L514">
         <v>2.034624066109008</v>
@@ -23065,7 +23065,7 @@
         <v>0.03522629151453022</v>
       </c>
       <c r="K515">
-        <v>0.6494714628520896</v>
+        <v>0.6494714628520897</v>
       </c>
       <c r="L515">
         <v>2.407964259649668</v>
@@ -23200,7 +23200,7 @@
         <v>0.574591500495597</v>
       </c>
       <c r="L518">
-        <v>2.70987814527427</v>
+        <v>2.709878145274271</v>
       </c>
       <c r="M518">
         <v>1</v>
@@ -23247,7 +23247,7 @@
         <v>2.638126542513477</v>
       </c>
       <c r="M519">
-        <v>0.9352490610104431</v>
+        <v>0.9352490610104427</v>
       </c>
       <c r="N519">
         <v>0.5</v>
@@ -23288,7 +23288,7 @@
         <v>0.4615631397491795</v>
       </c>
       <c r="L520">
-        <v>2.851383561358722</v>
+        <v>2.851383561358721</v>
       </c>
       <c r="M520">
         <v>1</v>
@@ -23332,7 +23332,7 @@
         <v>0.5090249251352057</v>
       </c>
       <c r="L521">
-        <v>3.058756050713008</v>
+        <v>3.058756050713009</v>
       </c>
       <c r="M521">
         <v>1</v>
@@ -23379,7 +23379,7 @@
         <v>2.664010654412544</v>
       </c>
       <c r="M522">
-        <v>0.6267656555289566</v>
+        <v>0.6267656555289565</v>
       </c>
       <c r="N522">
         <v>0.5</v>
@@ -23420,10 +23420,10 @@
         <v>0.3354757174500846</v>
       </c>
       <c r="L523">
-        <v>2.219208677404162</v>
+        <v>2.219208677404161</v>
       </c>
       <c r="M523">
-        <v>0.1802351787367785</v>
+        <v>0.180235178736778</v>
       </c>
       <c r="N523">
         <v>0.5</v>
@@ -23467,7 +23467,7 @@
         <v>2.227449932152731</v>
       </c>
       <c r="M524">
-        <v>0.009816306989430078</v>
+        <v>0.009816306989430068</v>
       </c>
       <c r="N524">
         <v>0.5</v>
@@ -23599,7 +23599,7 @@
         <v>1.263727528576064</v>
       </c>
       <c r="M527">
-        <v>0.0590422176816932</v>
+        <v>0.05904221768169352</v>
       </c>
       <c r="N527">
         <v>0.5</v>
@@ -23687,7 +23687,7 @@
         <v>1.681856131628604</v>
       </c>
       <c r="M529">
-        <v>0.2782261237868653</v>
+        <v>0.2782261237868652</v>
       </c>
       <c r="N529">
         <v>0.5</v>
@@ -23731,7 +23731,7 @@
         <v>1.6641694966831</v>
       </c>
       <c r="M530">
-        <v>0.2689547520009829</v>
+        <v>0.2689547520009831</v>
       </c>
       <c r="N530">
         <v>0.5</v>
@@ -23775,7 +23775,7 @@
         <v>1.556783344441518</v>
       </c>
       <c r="M531">
-        <v>0.2681500131091753</v>
+        <v>0.2681500131091757</v>
       </c>
       <c r="N531">
         <v>0.5</v>
@@ -23816,10 +23816,10 @@
         <v>-0.0498517523109021</v>
       </c>
       <c r="L532">
-        <v>1.190723069729185</v>
+        <v>1.190723069729184</v>
       </c>
       <c r="M532">
-        <v>0.03681692649432262</v>
+        <v>0.03681692649432242</v>
       </c>
       <c r="N532">
         <v>0.5</v>
@@ -23863,7 +23863,7 @@
         <v>1.300369562315267</v>
       </c>
       <c r="M533">
-        <v>0.1386852676707993</v>
+        <v>0.1386852676708001</v>
       </c>
       <c r="N533">
         <v>0.5</v>
@@ -23907,7 +23907,7 @@
         <v>1.251417932657823</v>
       </c>
       <c r="M534">
-        <v>0.1307050860733173</v>
+        <v>0.1307050860733179</v>
       </c>
       <c r="N534">
         <v>0.5</v>
@@ -24036,7 +24036,7 @@
         <v>-0.06821776208349842</v>
       </c>
       <c r="L537">
-        <v>0.991233942623543</v>
+        <v>0.9912339426235426</v>
       </c>
       <c r="M537">
         <v>0</v>
@@ -24083,7 +24083,7 @@
         <v>1.065020220402026</v>
       </c>
       <c r="M538">
-        <v>0.1068402940901491</v>
+        <v>0.1068402940901497</v>
       </c>
       <c r="N538">
         <v>0.5</v>
@@ -24127,7 +24127,7 @@
         <v>1.02744097482337</v>
       </c>
       <c r="M539">
-        <v>0.05380460577748382</v>
+        <v>0.0538046057774841</v>
       </c>
       <c r="N539">
         <v>0.5</v>
@@ -24171,7 +24171,7 @@
         <v>1.26542395877286</v>
       </c>
       <c r="M540">
-        <v>0.4848206279909865</v>
+        <v>0.4848206279909867</v>
       </c>
       <c r="N540">
         <v>0.5</v>
@@ -24212,7 +24212,7 @@
         <v>-0.1040947889007963</v>
       </c>
       <c r="L541">
-        <v>0.9861422988332491</v>
+        <v>0.986142298833249</v>
       </c>
       <c r="M541">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>-0.1296655470013366</v>
       </c>
       <c r="L542">
-        <v>0.9841903256924911</v>
+        <v>0.984190325692491</v>
       </c>
       <c r="M542">
         <v>0</v>
@@ -24300,7 +24300,7 @@
         <v>-0.1587853495326714</v>
       </c>
       <c r="L543">
-        <v>0.8956016323425168</v>
+        <v>0.8956016323425164</v>
       </c>
       <c r="M543">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>-0.1814939588794976</v>
       </c>
       <c r="L544">
-        <v>0.5954312524756299</v>
+        <v>0.59543125247563</v>
       </c>
       <c r="M544">
         <v>0</v>
@@ -24388,7 +24388,7 @@
         <v>-0.1723165090818583</v>
       </c>
       <c r="L545">
-        <v>0.6703905963752682</v>
+        <v>0.6703905963752683</v>
       </c>
       <c r="M545">
         <v>0.1118808357092532</v>
@@ -24435,7 +24435,7 @@
         <v>0.671356096532062</v>
       </c>
       <c r="M546">
-        <v>0.1133218964069579</v>
+        <v>0.1133218964069577</v>
       </c>
       <c r="N546">
         <v>0.5</v>
@@ -24476,10 +24476,10 @@
         <v>-0.2330101213242328</v>
       </c>
       <c r="L547">
-        <v>0.5964006594265128</v>
+        <v>0.5964006594265127</v>
       </c>
       <c r="M547">
-        <v>0.001446891797136697</v>
+        <v>0.001446891797136365</v>
       </c>
       <c r="N547">
         <v>0.5</v>
@@ -24520,10 +24520,10 @@
         <v>-0.1786062522835865</v>
       </c>
       <c r="L548">
-        <v>0.6429470113255047</v>
+        <v>0.6429470113255046</v>
       </c>
       <c r="M548">
-        <v>0.07091981510138304</v>
+        <v>0.07091981510138272</v>
       </c>
       <c r="N548">
         <v>0.5</v>
@@ -24564,10 +24564,10 @@
         <v>-0.1160555565605245</v>
       </c>
       <c r="L549">
-        <v>0.8241588699418967</v>
+        <v>0.8241588699418966</v>
       </c>
       <c r="M549">
-        <v>0.341388220075333</v>
+        <v>0.3413882200753327</v>
       </c>
       <c r="N549">
         <v>0.5</v>
@@ -24611,7 +24611,7 @@
         <v>0.6447031124381259</v>
       </c>
       <c r="M550">
-        <v>0.1261081825605651</v>
+        <v>0.1261081825605649</v>
       </c>
       <c r="N550">
         <v>0.5</v>
@@ -24652,7 +24652,7 @@
         <v>-0.1892549910972497</v>
       </c>
       <c r="L551">
-        <v>0.2076506004774421</v>
+        <v>0.2076506004774422</v>
       </c>
       <c r="M551">
         <v>0</v>
@@ -24696,7 +24696,7 @@
         <v>-0.2402744421685162</v>
       </c>
       <c r="L552">
-        <v>-0.5250398330970008</v>
+        <v>-0.5250398330970006</v>
       </c>
       <c r="M552">
         <v>1</v>
@@ -24740,7 +24740,7 @@
         <v>-0.222121238741485</v>
       </c>
       <c r="L553">
-        <v>-0.6699688559561917</v>
+        <v>-0.6699688559561916</v>
       </c>
       <c r="M553">
         <v>1</v>
@@ -24784,7 +24784,7 @@
         <v>-0.2094540158932988</v>
       </c>
       <c r="L554">
-        <v>-1.409928759943989</v>
+        <v>-1.409928759943988</v>
       </c>
       <c r="M554">
         <v>1</v>
@@ -24828,7 +24828,7 @@
         <v>0.1004278291487897</v>
       </c>
       <c r="L555">
-        <v>-0.2404646096139255</v>
+        <v>-0.240464609613926</v>
       </c>
       <c r="M555">
         <v>0</v>
@@ -25004,10 +25004,10 @@
         <v>0.1973389044516148</v>
       </c>
       <c r="L559">
-        <v>1.709994103637463</v>
+        <v>1.709994103637462</v>
       </c>
       <c r="M559">
-        <v>0.8659923694285147</v>
+        <v>0.8659923694285145</v>
       </c>
       <c r="N559">
         <v>0.5</v>
@@ -25051,7 +25051,7 @@
         <v>1.434656678198921</v>
       </c>
       <c r="M560">
-        <v>0.7072802580196819</v>
+        <v>0.7072802580196818</v>
       </c>
       <c r="N560">
         <v>0.5</v>
@@ -25268,10 +25268,10 @@
         <v>0.120148080080059</v>
       </c>
       <c r="L565">
-        <v>1.446644657225516</v>
+        <v>1.446644657225515</v>
       </c>
       <c r="M565">
-        <v>0.1795440263296452</v>
+        <v>0.1795440263296448</v>
       </c>
       <c r="N565">
         <v>0.5</v>
@@ -25356,10 +25356,10 @@
         <v>-0.004533608455416052</v>
       </c>
       <c r="L567">
-        <v>1.1362487880157</v>
+        <v>1.136248788015699</v>
       </c>
       <c r="M567">
-        <v>0.01508858131949837</v>
+        <v>0.01508858131949807</v>
       </c>
       <c r="N567">
         <v>0.5</v>
@@ -25444,10 +25444,10 @@
         <v>-0.04781150338683027</v>
       </c>
       <c r="L569">
-        <v>1.09954252068072</v>
+        <v>1.099542520680719</v>
       </c>
       <c r="M569">
-        <v>0.01145641865522086</v>
+        <v>0.01145641865522087</v>
       </c>
       <c r="N569">
         <v>0.5</v>
@@ -25491,7 +25491,7 @@
         <v>1.172013614051906</v>
       </c>
       <c r="M570">
-        <v>0.05958231186835502</v>
+        <v>0.05958231186835518</v>
       </c>
       <c r="N570">
         <v>0.5</v>
@@ -25535,7 +25535,7 @@
         <v>1.306949032687836</v>
       </c>
       <c r="M571">
-        <v>0.1491889018321844</v>
+        <v>0.1491889018321845</v>
       </c>
       <c r="N571">
         <v>0.5</v>
@@ -25579,7 +25579,7 @@
         <v>1.264146767694805</v>
       </c>
       <c r="M572">
-        <v>0.4018856741586592</v>
+        <v>0.4018856741586595</v>
       </c>
       <c r="N572">
         <v>0.5</v>
@@ -25623,7 +25623,7 @@
         <v>1.151498745739685</v>
       </c>
       <c r="M573">
-        <v>0.152943599775997</v>
+        <v>0.1529435997759979</v>
       </c>
       <c r="N573">
         <v>0.5</v>
@@ -25708,7 +25708,7 @@
         <v>-0.1147041258153407</v>
       </c>
       <c r="L575">
-        <v>0.9645942020544452</v>
+        <v>0.9645942020544451</v>
       </c>
       <c r="M575">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>1.112132222860504</v>
       </c>
       <c r="M576">
-        <v>0.241914015563398</v>
+        <v>0.2419140155633985</v>
       </c>
       <c r="N576">
         <v>0.5</v>
@@ -25799,7 +25799,7 @@
         <v>1.20052188097366</v>
       </c>
       <c r="M577">
-        <v>0.3868440953598279</v>
+        <v>0.3868440953598284</v>
       </c>
       <c r="N577">
         <v>0.5</v>
@@ -25843,7 +25843,7 @@
         <v>1.172970057592063</v>
       </c>
       <c r="M578">
-        <v>0.3416681319442881</v>
+        <v>0.3416681319442882</v>
       </c>
       <c r="N578">
         <v>0.5</v>
@@ -25887,7 +25887,7 @@
         <v>1.103537282300953</v>
       </c>
       <c r="M579">
-        <v>0.2278211290455372</v>
+        <v>0.2278211290455373</v>
       </c>
       <c r="N579">
         <v>0.5</v>
@@ -25931,7 +25931,7 @@
         <v>1.175895994115435</v>
       </c>
       <c r="M580">
-        <v>0.3464657092046133</v>
+        <v>0.3464657092046134</v>
       </c>
       <c r="N580">
         <v>0.5</v>
@@ -25975,7 +25975,7 @@
         <v>1.408602146484687</v>
       </c>
       <c r="M581">
-        <v>0.7280275565060246</v>
+        <v>0.728027556506025</v>
       </c>
       <c r="N581">
         <v>0.5</v>
@@ -26019,7 +26019,7 @@
         <v>1.253674333849478</v>
       </c>
       <c r="M582">
-        <v>0.4739967034942147</v>
+        <v>0.4739967034942148</v>
       </c>
       <c r="N582">
         <v>0.5</v>
@@ -26060,7 +26060,7 @@
         <v>-0.02462820831549879</v>
       </c>
       <c r="L583">
-        <v>1.669901156314745</v>
+        <v>1.669901156314746</v>
       </c>
       <c r="M583">
         <v>1</v>
@@ -26107,7 +26107,7 @@
         <v>1.571794274615093</v>
       </c>
       <c r="M584">
-        <v>0.8609018653409652</v>
+        <v>0.8609018653409654</v>
       </c>
       <c r="N584">
         <v>0.5</v>
@@ -26148,10 +26148,10 @@
         <v>-0.1382631479379164</v>
       </c>
       <c r="L585">
-        <v>1.290318193665573</v>
+        <v>1.290318193665572</v>
       </c>
       <c r="M585">
-        <v>0.3297895927593552</v>
+        <v>0.3297895927593547</v>
       </c>
       <c r="N585">
         <v>0.5</v>
@@ -26236,7 +26236,7 @@
         <v>-0.1838217158413406</v>
       </c>
       <c r="L587">
-        <v>0.9621438749877457</v>
+        <v>0.9621438749877456</v>
       </c>
       <c r="M587">
         <v>0</v>
@@ -26280,7 +26280,7 @@
         <v>-0.1751116172166703</v>
       </c>
       <c r="L588">
-        <v>0.9013038689822142</v>
+        <v>0.9013038689822143</v>
       </c>
       <c r="M588">
         <v>0</v>
@@ -26368,7 +26368,7 @@
         <v>-0.1544505364873854</v>
       </c>
       <c r="L590">
-        <v>0.5636417804020221</v>
+        <v>0.5636417804020223</v>
       </c>
       <c r="M590">
         <v>0</v>
@@ -26412,7 +26412,7 @@
         <v>-0.2395911276312794</v>
       </c>
       <c r="L591">
-        <v>-0.06901895422939555</v>
+        <v>-0.06901895422939568</v>
       </c>
       <c r="M591">
         <v>1</v>
@@ -26456,7 +26456,7 @@
         <v>-0.242245924681957</v>
       </c>
       <c r="L592">
-        <v>-0.5410479606170695</v>
+        <v>-0.5410479606170698</v>
       </c>
       <c r="M592">
         <v>1</v>
@@ -26544,7 +26544,7 @@
         <v>0.03050504142483417</v>
       </c>
       <c r="L594">
-        <v>0.01655687553148387</v>
+        <v>0.016556875531484</v>
       </c>
       <c r="M594">
         <v>0</v>
@@ -26588,10 +26588,10 @@
         <v>0.05305096490135519</v>
       </c>
       <c r="L595">
-        <v>0.2812164499235604</v>
+        <v>0.2812164499235609</v>
       </c>
       <c r="M595">
-        <v>0.2407694193507102</v>
+        <v>0.2407694193507106</v>
       </c>
       <c r="N595">
         <v>0.5</v>
@@ -26632,7 +26632,7 @@
         <v>0.3387147818415439</v>
       </c>
       <c r="L596">
-        <v>1.367964648957218</v>
+        <v>1.367964648957219</v>
       </c>
       <c r="M596">
         <v>1</v>
@@ -26676,10 +26676,10 @@
         <v>0.2107639822499923</v>
       </c>
       <c r="L597">
-        <v>0.5471933396669562</v>
+        <v>0.5471933396669566</v>
       </c>
       <c r="M597">
-        <v>0.3926545892142842</v>
+        <v>0.3926545892142843</v>
       </c>
       <c r="N597">
         <v>0.5</v>
@@ -26723,7 +26723,7 @@
         <v>0.7153468059758316</v>
       </c>
       <c r="M598">
-        <v>0.5170829591078633</v>
+        <v>0.5170829591078629</v>
       </c>
       <c r="N598">
         <v>0.5</v>
@@ -26764,10 +26764,10 @@
         <v>0.1025177752524833</v>
       </c>
       <c r="L599">
-        <v>0.5819975682274661</v>
+        <v>0.5819975682274663</v>
       </c>
       <c r="M599">
-        <v>0.4184086430571767</v>
+        <v>0.4184086430571766</v>
       </c>
       <c r="N599">
         <v>0.5</v>
@@ -26808,7 +26808,7 @@
         <v>-0.0604016803212327</v>
       </c>
       <c r="L600">
-        <v>0.5499862928985626</v>
+        <v>0.549986292898563</v>
       </c>
       <c r="M600">
         <v>0.3947212883161597</v>
@@ -26852,10 +26852,10 @@
         <v>-0.06638022845357781</v>
       </c>
       <c r="L601">
-        <v>0.4957399644264624</v>
+        <v>0.4957399644264628</v>
       </c>
       <c r="M601">
-        <v>0.3545806812108822</v>
+        <v>0.3545806812108823</v>
       </c>
       <c r="N601">
         <v>0.5</v>
@@ -26899,7 +26899,7 @@
         <v>0.2736528240587026</v>
       </c>
       <c r="M602">
-        <v>0.1902430588182104</v>
+        <v>0.1902430588182102</v>
       </c>
       <c r="N602">
         <v>0.5</v>
@@ -26940,10 +26940,10 @@
         <v>-0.1159509888465821</v>
       </c>
       <c r="L603">
-        <v>0.25892074364955</v>
+        <v>0.2589207436495498</v>
       </c>
       <c r="M603">
-        <v>0.1793417744695139</v>
+        <v>0.1793417744695136</v>
       </c>
       <c r="N603">
         <v>0.5</v>
@@ -26984,7 +26984,7 @@
         <v>-0.1242279416536462</v>
       </c>
       <c r="L604">
-        <v>0.1283192123890753</v>
+        <v>0.1283192123890751</v>
       </c>
       <c r="M604">
         <v>0</v>
@@ -27028,10 +27028,10 @@
         <v>0.3463985052652577</v>
       </c>
       <c r="L605">
-        <v>1.147032217791656</v>
+        <v>1.147032217791657</v>
       </c>
       <c r="M605">
-        <v>0.8217777239779177</v>
+        <v>0.8217777239779175</v>
       </c>
       <c r="N605">
         <v>0.5</v>
@@ -27075,7 +27075,7 @@
         <v>1.013277767828671</v>
       </c>
       <c r="M606">
-        <v>0.8687025204806061</v>
+        <v>0.8687025204806058</v>
       </c>
       <c r="N606">
         <v>0.5</v>
@@ -27119,7 +27119,7 @@
         <v>1.10872895034977</v>
       </c>
       <c r="M607">
-        <v>0.962400335287023</v>
+        <v>0.9624003352870226</v>
       </c>
       <c r="N607">
         <v>0.5</v>
@@ -27204,10 +27204,10 @@
         <v>0.1605245226790335</v>
       </c>
       <c r="L609">
-        <v>0.9906991640039038</v>
+        <v>0.9906991640039035</v>
       </c>
       <c r="M609">
-        <v>0.7566105197553494</v>
+        <v>0.7566105197553491</v>
       </c>
       <c r="N609">
         <v>0.5</v>
@@ -27251,7 +27251,7 @@
         <v>1.153359246134617</v>
       </c>
       <c r="M610">
-        <v>0.8993206199309327</v>
+        <v>0.8993206199309329</v>
       </c>
       <c r="N610">
         <v>0.5</v>
@@ -27295,7 +27295,7 @@
         <v>1.192671279951036</v>
       </c>
       <c r="M611">
-        <v>0.9338110997742832</v>
+        <v>0.933811099774283</v>
       </c>
       <c r="N611">
         <v>0.5</v>
@@ -27427,7 +27427,7 @@
         <v>2.050293139956134</v>
       </c>
       <c r="M614">
-        <v>0.958279562269985</v>
+        <v>0.9582795622699847</v>
       </c>
       <c r="N614">
         <v>0.5</v>
@@ -27468,10 +27468,10 @@
         <v>0.4670455993889485</v>
       </c>
       <c r="L615">
-        <v>2.041887509675172</v>
+        <v>2.041887509675173</v>
       </c>
       <c r="M615">
-        <v>0.9506776469240577</v>
+        <v>0.9506776469240584</v>
       </c>
       <c r="N615">
         <v>0.5</v>
@@ -27512,10 +27512,10 @@
         <v>0.5291158242445021</v>
       </c>
       <c r="L616">
-        <v>2.074731063360828</v>
+        <v>2.074731063360829</v>
       </c>
       <c r="M616">
-        <v>0.9803808228231058</v>
+        <v>0.9803808228231067</v>
       </c>
       <c r="N616">
         <v>0.5</v>
@@ -27556,10 +27556,10 @@
         <v>0.5328330518669512</v>
       </c>
       <c r="L617">
-        <v>2.080168840092405</v>
+        <v>2.080168840092406</v>
       </c>
       <c r="M617">
-        <v>0.9852986596779021</v>
+        <v>0.9852986596779024</v>
       </c>
       <c r="N617">
         <v>0.5</v>
@@ -27603,7 +27603,7 @@
         <v>1.680650959484915</v>
       </c>
       <c r="M618">
-        <v>0.6239811848371065</v>
+        <v>0.623981184837107</v>
       </c>
       <c r="N618">
         <v>0.5</v>
@@ -27644,10 +27644,10 @@
         <v>0.5339971145731239</v>
       </c>
       <c r="L619">
-        <v>1.464223922219914</v>
+        <v>1.464223922219915</v>
       </c>
       <c r="M619">
-        <v>0.329632207290768</v>
+        <v>0.3296322072907685</v>
       </c>
       <c r="N619">
         <v>0.5</v>
@@ -27732,10 +27732,10 @@
         <v>0.5252196040023803</v>
       </c>
       <c r="L621">
-        <v>1.198302716763452</v>
+        <v>1.198302716763453</v>
       </c>
       <c r="M621">
-        <v>0.008291894886579028</v>
+        <v>0.008291894886579032</v>
       </c>
       <c r="N621">
         <v>0.5</v>
@@ -27779,7 +27779,7 @@
         <v>1.408381794241739</v>
       </c>
       <c r="M622">
-        <v>0.24026169160426</v>
+        <v>0.2402616916042603</v>
       </c>
       <c r="N622">
         <v>0.5</v>
@@ -27823,7 +27823,7 @@
         <v>1.358009365563599</v>
       </c>
       <c r="M623">
-        <v>0.1880151220072689</v>
+        <v>0.1880151220072686</v>
       </c>
       <c r="N623">
         <v>0.5</v>
@@ -27864,10 +27864,10 @@
         <v>0.3424760451777948</v>
       </c>
       <c r="L624">
-        <v>1.326157716910689</v>
+        <v>1.326157716910688</v>
       </c>
       <c r="M624">
-        <v>0.1522016238015217</v>
+        <v>0.1522016238015206</v>
       </c>
       <c r="N624">
         <v>0.5</v>
@@ -27908,7 +27908,7 @@
         <v>0.3768708676902072</v>
       </c>
       <c r="L625">
-        <v>1.186733306965142</v>
+        <v>1.186733306965141</v>
       </c>
       <c r="M625">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>1.420580901991157</v>
       </c>
       <c r="M626">
-        <v>0.2617397521760598</v>
+        <v>0.26173975217606</v>
       </c>
       <c r="N626">
         <v>0.5</v>
@@ -28043,7 +28043,7 @@
         <v>1.492034162469857</v>
       </c>
       <c r="M628">
-        <v>0.5654694515637859</v>
+        <v>0.565469451563788</v>
       </c>
       <c r="N628">
         <v>0.5</v>
@@ -28087,7 +28087,7 @@
         <v>1.587987315089835</v>
       </c>
       <c r="M629">
-        <v>0.7431911172896709</v>
+        <v>0.7431911172896724</v>
       </c>
       <c r="N629">
         <v>0.5</v>
@@ -28172,10 +28172,10 @@
         <v>-0.2767743066302661</v>
       </c>
       <c r="L631">
-        <v>1.161712417539894</v>
+        <v>1.161712417539893</v>
       </c>
       <c r="M631">
-        <v>0.1446474013061621</v>
+        <v>0.1446474013061607</v>
       </c>
       <c r="N631">
         <v>0.5</v>
@@ -28216,7 +28216,7 @@
         <v>-0.1309433103529575</v>
       </c>
       <c r="L632">
-        <v>1.916485400149</v>
+        <v>1.916485400148999</v>
       </c>
       <c r="M632">
         <v>1</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="J634">
-        <v>-2.457397934955798e-06</v>
+        <v>-2.457397934955798E-06</v>
       </c>
       <c r="K634">
         <v>-0.04496770386914101</v>
@@ -28348,10 +28348,10 @@
         <v>-0.05931735347459115</v>
       </c>
       <c r="L635">
-        <v>2.784927323006219</v>
+        <v>2.784927323006218</v>
       </c>
       <c r="M635">
-        <v>0.8732333418318222</v>
+        <v>0.8732333418318219</v>
       </c>
       <c r="N635">
         <v>0.5</v>
@@ -28395,7 +28395,7 @@
         <v>2.3191012614886</v>
       </c>
       <c r="M636">
-        <v>0.6365642013957586</v>
+        <v>0.6365642013957584</v>
       </c>
       <c r="N636">
         <v>0.5</v>
@@ -28439,7 +28439,7 @@
         <v>1.486801922704621</v>
       </c>
       <c r="M637">
-        <v>0.2137034270248117</v>
+        <v>0.2137034270248116</v>
       </c>
       <c r="N637">
         <v>0.5</v>
@@ -28568,7 +28568,7 @@
         <v>-0.3198886456931014</v>
       </c>
       <c r="L640">
-        <v>0.6169542796911964</v>
+        <v>0.6169542796911962</v>
       </c>
       <c r="M640">
         <v>0</v>
@@ -28656,7 +28656,7 @@
         <v>-0.439918692130351</v>
       </c>
       <c r="L642">
-        <v>-0.2118117020995063</v>
+        <v>-0.2118117020995064</v>
       </c>
       <c r="M642">
         <v>1</v>
@@ -28700,7 +28700,7 @@
         <v>-0.5875185370539214</v>
       </c>
       <c r="L643">
-        <v>-1.058051401862958</v>
+        <v>-1.058051401862957</v>
       </c>
       <c r="M643">
         <v>1</v>
@@ -28747,7 +28747,7 @@
         <v>-0.6511701956755568</v>
       </c>
       <c r="M644">
-        <v>0.5191891773676701</v>
+        <v>0.5191891773676703</v>
       </c>
       <c r="N644">
         <v>0.5</v>
@@ -28832,10 +28832,10 @@
         <v>-0.5463633947243947</v>
       </c>
       <c r="L646">
-        <v>-0.7131190288897504</v>
+        <v>-0.7131190288897501</v>
       </c>
       <c r="M646">
-        <v>0.5451404893729856</v>
+        <v>0.5451404893729853</v>
       </c>
       <c r="N646">
         <v>0.5</v>
@@ -28876,10 +28876,10 @@
         <v>-0.5010180033819067</v>
       </c>
       <c r="L647">
-        <v>-0.468555596019964</v>
+        <v>-0.4685555960199639</v>
       </c>
       <c r="M647">
-        <v>0.2791929909970907</v>
+        <v>0.2791929909970906</v>
       </c>
       <c r="N647">
         <v>0.5</v>
@@ -28964,10 +28964,10 @@
         <v>-0.4994239824952543</v>
       </c>
       <c r="L649">
-        <v>-0.551176579761294</v>
+        <v>-0.5511765797612942</v>
       </c>
       <c r="M649">
-        <v>0.3690381640122293</v>
+        <v>0.3690381640122296</v>
       </c>
       <c r="N649">
         <v>0.5</v>
@@ -29052,10 +29052,10 @@
         <v>-0.443701820267445</v>
       </c>
       <c r="L651">
-        <v>-0.3839999356940683</v>
+        <v>-0.3839999356940681</v>
       </c>
       <c r="M651">
-        <v>0.1872439777152609</v>
+        <v>0.1872439777152607</v>
       </c>
       <c r="N651">
         <v>0.5</v>
@@ -29096,10 +29096,10 @@
         <v>-0.4613480939437843</v>
       </c>
       <c r="L652">
-        <v>-0.5856377160655737</v>
+        <v>-0.5856377160655738</v>
       </c>
       <c r="M652">
-        <v>0.2956773441676827</v>
+        <v>0.2956773441676829</v>
       </c>
       <c r="N652">
         <v>0.5</v>
@@ -29140,10 +29140,10 @@
         <v>-0.5680134767415074</v>
       </c>
       <c r="L653">
-        <v>-0.987984731179809</v>
+        <v>-0.9879847311798087</v>
       </c>
       <c r="M653">
-        <v>0.8149138944197389</v>
+        <v>0.8149138944197387</v>
       </c>
       <c r="N653">
         <v>0.5</v>
@@ -29187,7 +29187,7 @@
         <v>-0.8010805530658588</v>
       </c>
       <c r="M654">
-        <v>0.5737104629887155</v>
+        <v>0.5737104629887158</v>
       </c>
       <c r="N654">
         <v>0.5</v>
@@ -29228,10 +29228,10 @@
         <v>-0.5758430548772333</v>
       </c>
       <c r="L655">
-        <v>-0.9624845373811373</v>
+        <v>-0.9624845373811368</v>
       </c>
       <c r="M655">
-        <v>0.9596172183776711</v>
+        <v>0.9596172183776709</v>
       </c>
       <c r="N655">
         <v>0.5</v>
@@ -29272,10 +29272,10 @@
         <v>-0.4695521405724796</v>
       </c>
       <c r="L656">
-        <v>-0.9744243205803238</v>
+        <v>-0.9744243205803242</v>
       </c>
       <c r="M656">
-        <v>0.9785253749727718</v>
+        <v>0.978525374972773</v>
       </c>
       <c r="N656">
         <v>0.5</v>
@@ -29316,10 +29316,10 @@
         <v>-0.4550845534752674</v>
       </c>
       <c r="L657">
-        <v>-0.9299240396586839</v>
+        <v>-0.9299240396586841</v>
       </c>
       <c r="M657">
-        <v>0.9080535526494261</v>
+        <v>0.908053552649427</v>
       </c>
       <c r="N657">
         <v>0.5</v>
@@ -29360,7 +29360,7 @@
         <v>-0.461616709061028</v>
       </c>
       <c r="L658">
-        <v>-1.307660698189416</v>
+        <v>-1.307660698189415</v>
       </c>
       <c r="M658">
         <v>1</v>
@@ -29448,10 +29448,10 @@
         <v>-0.3704247049538087</v>
       </c>
       <c r="L660">
-        <v>-0.7703516653136196</v>
+        <v>-0.7703516653136193</v>
       </c>
       <c r="M660">
-        <v>0.2585882556610499</v>
+        <v>0.2585882556610497</v>
       </c>
       <c r="N660">
         <v>0.5</v>
@@ -29492,10 +29492,10 @@
         <v>-0.376912794585416</v>
       </c>
       <c r="L661">
-        <v>-0.854337471725777</v>
+        <v>-0.8543374717257776</v>
       </c>
       <c r="M661">
-        <v>0.2079006704879762</v>
+        <v>0.2079006704879764</v>
       </c>
       <c r="N661">
         <v>0.5</v>
@@ -29536,10 +29536,10 @@
         <v>-0.4142567412687482</v>
       </c>
       <c r="L662">
-        <v>-1.015195448973353</v>
+        <v>-1.015195448973354</v>
       </c>
       <c r="M662">
-        <v>0.2210322052769119</v>
+        <v>0.2210322052769127</v>
       </c>
       <c r="N662">
         <v>0.5</v>
@@ -29580,10 +29580,10 @@
         <v>-0.4079806634096387</v>
       </c>
       <c r="L663">
-        <v>-1.269351650643632</v>
+        <v>-1.269351650643633</v>
       </c>
       <c r="M663">
-        <v>0.4504711761190541</v>
+        <v>0.4504711761190549</v>
       </c>
       <c r="N663">
         <v>0.5</v>
@@ -29627,7 +29627,7 @@
         <v>-1.536676149081279</v>
       </c>
       <c r="M664">
-        <v>0.6917977988783757</v>
+        <v>0.6917977988783762</v>
       </c>
       <c r="N664">
         <v>0.5</v>
@@ -29671,7 +29671,7 @@
         <v>-1.717102098275053</v>
       </c>
       <c r="M665">
-        <v>0.8546769410129471</v>
+        <v>0.8546769410129469</v>
       </c>
       <c r="N665">
         <v>0.5</v>
@@ -29715,7 +29715,7 @@
         <v>-1.634712764209762</v>
       </c>
       <c r="M666">
-        <v>0.7803001448062062</v>
+        <v>0.7803001448062059</v>
       </c>
       <c r="N666">
         <v>0.5</v>
@@ -29759,7 +29759,7 @@
         <v>-1.413631437030152</v>
       </c>
       <c r="M667">
-        <v>0.5807194466089983</v>
+        <v>0.580719446608998</v>
       </c>
       <c r="N667">
         <v>0.5</v>
@@ -29891,7 +29891,7 @@
         <v>-1.725909576560058</v>
       </c>
       <c r="M670">
-        <v>0.6453561569767384</v>
+        <v>0.6453561569767382</v>
       </c>
       <c r="N670">
         <v>0.5</v>
@@ -29979,7 +29979,7 @@
         <v>-1.5149623202815</v>
       </c>
       <c r="M672">
-        <v>0.2625406941550879</v>
+        <v>0.2625406941550876</v>
       </c>
       <c r="N672">
         <v>0.5</v>
@@ -30023,7 +30023,7 @@
         <v>-1.789159633807675</v>
       </c>
       <c r="M673">
-        <v>0.4746102665002896</v>
+        <v>0.47461026650029</v>
       </c>
       <c r="N673">
         <v>0.5</v>
@@ -30064,10 +30064,10 @@
         <v>-0.2174811775183522</v>
       </c>
       <c r="L674">
-        <v>-1.783534308049803</v>
+        <v>-1.783534308049807</v>
       </c>
       <c r="M674">
-        <v>0.4675007141950165</v>
+        <v>0.4675007141950223</v>
       </c>
       <c r="N674">
         <v>0.5</v>
@@ -30108,10 +30108,10 @@
         <v>-0.1006227411672648</v>
       </c>
       <c r="L675">
-        <v>-2.099098470929384</v>
+        <v>-2.099098470929385</v>
       </c>
       <c r="M675">
-        <v>0.8663256033176523</v>
+        <v>0.866325603317654</v>
       </c>
       <c r="N675">
         <v>0.5</v>
@@ -30152,7 +30152,7 @@
         <v>-0.04360518340456177</v>
       </c>
       <c r="L676">
-        <v>-0.224989958694465</v>
+        <v>-0.2249899586944644</v>
       </c>
       <c r="M676">
         <v>0</v>
@@ -30196,7 +30196,7 @@
         <v>-0.08086136015114702</v>
       </c>
       <c r="L677">
-        <v>0.07658804975754389</v>
+        <v>0.07658804975754384</v>
       </c>
       <c r="M677">
         <v>1</v>
@@ -30240,7 +30240,7 @@
         <v>-0.08947599500863891</v>
       </c>
       <c r="L678">
-        <v>0.4232767918146031</v>
+        <v>0.4232767918146026</v>
       </c>
       <c r="M678">
         <v>1</v>
@@ -30328,7 +30328,7 @@
         <v>-0.1270614655701962</v>
       </c>
       <c r="L680">
-        <v>0.6130701352049468</v>
+        <v>0.6130701352049475</v>
       </c>
       <c r="M680">
         <v>1</v>
@@ -30372,7 +30372,7 @@
         <v>-0.1318497452794442</v>
       </c>
       <c r="L681">
-        <v>0.6411903388893725</v>
+        <v>0.6411903388893722</v>
       </c>
       <c r="M681">
         <v>1</v>
@@ -30416,7 +30416,7 @@
         <v>-0.06060757282479722</v>
       </c>
       <c r="L682">
-        <v>0.8599457231874119</v>
+        <v>0.8599457231874117</v>
       </c>
       <c r="M682">
         <v>1</v>
@@ -30460,7 +30460,7 @@
         <v>0.3527183918703866</v>
       </c>
       <c r="L683">
-        <v>1.012902830606572</v>
+        <v>1.012902830606573</v>
       </c>
       <c r="M683">
         <v>1</v>
@@ -30504,10 +30504,10 @@
         <v>0.3584464286166925</v>
       </c>
       <c r="L684">
-        <v>0.6526842073715525</v>
+        <v>0.6526842073715527</v>
       </c>
       <c r="M684">
-        <v>0.6152804264091805</v>
+        <v>0.6152804264091806</v>
       </c>
       <c r="N684">
         <v>0.5</v>
@@ -30551,7 +30551,7 @@
         <v>0.7821132235334691</v>
       </c>
       <c r="M685">
-        <v>0.7535128016842492</v>
+        <v>0.7535128016842491</v>
       </c>
       <c r="N685">
         <v>0.5</v>
@@ -30592,7 +30592,7 @@
         <v>0.2298701242958784</v>
       </c>
       <c r="L686">
-        <v>1.298366481528708</v>
+        <v>1.298366481528707</v>
       </c>
       <c r="M686">
         <v>1</v>
@@ -30639,7 +30639,7 @@
         <v>1.25062626325327</v>
       </c>
       <c r="M687">
-        <v>0.9454453425327926</v>
+        <v>0.9454453425327933</v>
       </c>
       <c r="N687">
         <v>0.5</v>
@@ -30680,10 +30680,10 @@
         <v>0.1209095931958404</v>
       </c>
       <c r="L688">
-        <v>0.7034950304781702</v>
+        <v>0.70349503047817</v>
       </c>
       <c r="M688">
-        <v>0.2673853063350097</v>
+        <v>0.2673853063350096</v>
       </c>
       <c r="N688">
         <v>0.5</v>
@@ -30724,10 +30724,10 @@
         <v>0.1018369160890985</v>
       </c>
       <c r="L689">
-        <v>0.792791682139167</v>
+        <v>0.7927916821391668</v>
       </c>
       <c r="M689">
-        <v>0.2622537649563254</v>
+        <v>0.2622537649563247</v>
       </c>
       <c r="N689">
         <v>0.5</v>
@@ -30768,7 +30768,7 @@
         <v>0.06730059216824388</v>
       </c>
       <c r="L690">
-        <v>0.5153074162033633</v>
+        <v>0.5153074162033635</v>
       </c>
       <c r="M690">
         <v>0</v>
@@ -30812,10 +30812,10 @@
         <v>0.08887756087632308</v>
       </c>
       <c r="L691">
-        <v>0.6874551346213479</v>
+        <v>0.6874551346213478</v>
       </c>
       <c r="M691">
-        <v>0.21984001723607</v>
+        <v>0.2198400172360698</v>
       </c>
       <c r="N691">
         <v>0.5</v>
@@ -30856,10 +30856,10 @@
         <v>0.1492032202686161</v>
       </c>
       <c r="L692">
-        <v>0.9495060725111566</v>
+        <v>0.9495060725111564</v>
       </c>
       <c r="M692">
-        <v>0.5544903003292516</v>
+        <v>0.5544903003292515</v>
       </c>
       <c r="N692">
         <v>0.5</v>
@@ -30903,7 +30903,7 @@
         <v>1.100634535786043</v>
       </c>
       <c r="M693">
-        <v>0.7474878275491115</v>
+        <v>0.7474878275491118</v>
       </c>
       <c r="N693">
         <v>0.5</v>
@@ -30991,7 +30991,7 @@
         <v>1.103820445728342</v>
       </c>
       <c r="M695">
-        <v>0.7515563711409989</v>
+        <v>0.7515563711409996</v>
       </c>
       <c r="N695">
         <v>0.5</v>
@@ -31035,7 +31035,7 @@
         <v>0.9507135995582238</v>
       </c>
       <c r="M696">
-        <v>0.592132494769727</v>
+        <v>0.5921324947697266</v>
       </c>
       <c r="N696">
         <v>0.5</v>
@@ -31123,7 +31123,7 @@
         <v>0.9878466823838584</v>
       </c>
       <c r="M698">
-        <v>0.6572774981524774</v>
+        <v>0.657277498152477</v>
       </c>
       <c r="N698">
         <v>0.5</v>
@@ -31208,7 +31208,7 @@
         <v>0.4418710606948003</v>
       </c>
       <c r="L700">
-        <v>1.605201898181824</v>
+        <v>1.605201898181823</v>
       </c>
       <c r="M700">
         <v>1</v>
@@ -31384,7 +31384,7 @@
         <v>0.7296055973877995</v>
       </c>
       <c r="L704">
-        <v>3.625992700792381</v>
+        <v>3.62599270079238</v>
       </c>
       <c r="M704">
         <v>1</v>
@@ -31428,10 +31428,10 @@
         <v>0.7352621772775862</v>
       </c>
       <c r="L705">
-        <v>3.404519417237037</v>
+        <v>3.404519417237039</v>
       </c>
       <c r="M705">
-        <v>0.917214886681104</v>
+        <v>0.917214886681105</v>
       </c>
       <c r="N705">
         <v>0.5</v>
@@ -31475,7 +31475,7 @@
         <v>2.917033407745604</v>
       </c>
       <c r="M706">
-        <v>0.7312660906182665</v>
+        <v>0.7312660906182666</v>
       </c>
       <c r="N706">
         <v>0.5</v>
@@ -31519,7 +31519,7 @@
         <v>2.773403087238534</v>
       </c>
       <c r="M707">
-        <v>0.6768224322669688</v>
+        <v>0.676822432266969</v>
       </c>
       <c r="N707">
         <v>0.5</v>
@@ -31563,7 +31563,7 @@
         <v>2.088093934330483</v>
       </c>
       <c r="M708">
-        <v>0.3671616143181332</v>
+        <v>0.3671616143181333</v>
       </c>
       <c r="N708">
         <v>0.5</v>
@@ -31607,7 +31607,7 @@
         <v>2.341755345273715</v>
       </c>
       <c r="M709">
-        <v>0.3644877273493008</v>
+        <v>0.3644877273493011</v>
       </c>
       <c r="N709">
         <v>0.5</v>
@@ -31739,7 +31739,7 @@
         <v>1.44640249376551</v>
       </c>
       <c r="M712">
-        <v>0.08124926441948095</v>
+        <v>0.08124926441948088</v>
       </c>
       <c r="N712">
         <v>0.5</v>
@@ -31780,10 +31780,10 @@
         <v>0.09215941990909307</v>
       </c>
       <c r="L713">
-        <v>1.539852863116889</v>
+        <v>1.539852863116888</v>
       </c>
       <c r="M713">
-        <v>0.1206408873516498</v>
+        <v>0.1206408873516496</v>
       </c>
       <c r="N713">
         <v>0.5</v>
@@ -31824,10 +31824,10 @@
         <v>0.1087493796473906</v>
       </c>
       <c r="L714">
-        <v>1.681932261045149</v>
+        <v>1.681932261045148</v>
       </c>
       <c r="M714">
-        <v>0.1991199661534212</v>
+        <v>0.199119966153421</v>
       </c>
       <c r="N714">
         <v>0.5</v>
@@ -31868,10 +31868,10 @@
         <v>0.1104152831540831</v>
       </c>
       <c r="L715">
-        <v>1.699646584718901</v>
+        <v>1.699646584718902</v>
       </c>
       <c r="M715">
-        <v>0.2681254796015958</v>
+        <v>0.2681254796015964</v>
       </c>
       <c r="N715">
         <v>0.5</v>
@@ -31915,7 +31915,7 @@
         <v>1.33141336851386</v>
       </c>
       <c r="M716">
-        <v>0.05116747525431242</v>
+        <v>0.05116747525431271</v>
       </c>
       <c r="N716">
         <v>0.5</v>
@@ -31959,7 +31959,7 @@
         <v>1.478356417446048</v>
       </c>
       <c r="M717">
-        <v>0.2065105314978487</v>
+        <v>0.2065105314978483</v>
       </c>
       <c r="N717">
         <v>0.5</v>
@@ -32003,7 +32003,7 @@
         <v>1.674225767423167</v>
       </c>
       <c r="M718">
-        <v>0.386520329286511</v>
+        <v>0.3865203292865109</v>
       </c>
       <c r="N718">
         <v>0.5</v>
@@ -32091,7 +32091,7 @@
         <v>1.698650698531652</v>
       </c>
       <c r="M720">
-        <v>0.9977670466315376</v>
+        <v>0.9977670466315356</v>
       </c>
       <c r="N720">
         <v>0.5</v>
@@ -32135,7 +32135,7 @@
         <v>1.561470070291565</v>
       </c>
       <c r="M721">
-        <v>0.6247581468848383</v>
+        <v>0.6247581468848364</v>
       </c>
       <c r="N721">
         <v>0.5</v>
@@ -32352,7 +32352,7 @@
         <v>-0.1816625355470284</v>
       </c>
       <c r="L726">
-        <v>-0.1561255229645828</v>
+        <v>-0.1561255229645825</v>
       </c>
       <c r="M726">
         <v>1</v>
@@ -32396,7 +32396,7 @@
         <v>-0.1737066943727072</v>
       </c>
       <c r="L727">
-        <v>-0.02060740254104283</v>
+        <v>-0.02060740254104286</v>
       </c>
       <c r="M727">
         <v>0</v>
@@ -32440,7 +32440,7 @@
         <v>-0.2164135066483516</v>
       </c>
       <c r="L728">
-        <v>-0.3820772187278786</v>
+        <v>-0.3820772187278784</v>
       </c>
       <c r="M728">
         <v>1</v>
@@ -32484,7 +32484,7 @@
         <v>-0.1942442650802228</v>
       </c>
       <c r="L729">
-        <v>-0.145535407340335</v>
+        <v>-0.1455354073403349</v>
       </c>
       <c r="M729">
         <v>0.3456111664236983</v>
@@ -32572,10 +32572,10 @@
         <v>-0.1324518271058817</v>
       </c>
       <c r="L731">
-        <v>0.2489893427949638</v>
+        <v>0.2489893427949637</v>
       </c>
       <c r="M731">
-        <v>0.0313520785074583</v>
+        <v>0.03135207850745826</v>
       </c>
       <c r="N731">
         <v>0.5</v>
@@ -32616,10 +32616,10 @@
         <v>-0.1498238497609207</v>
       </c>
       <c r="L732">
-        <v>0.3318081996098929</v>
+        <v>0.331808199609893</v>
       </c>
       <c r="M732">
-        <v>0.1394010027021332</v>
+        <v>0.1394010027021333</v>
       </c>
       <c r="N732">
         <v>0.5</v>
@@ -32660,10 +32660,10 @@
         <v>-0.1507262954123175</v>
       </c>
       <c r="L733">
-        <v>0.3279630461479285</v>
+        <v>0.3279630461479286</v>
       </c>
       <c r="M733">
-        <v>0.160308395722291</v>
+        <v>0.1603083957222912</v>
       </c>
       <c r="N733">
         <v>0.5</v>
@@ -32704,10 +32704,10 @@
         <v>-0.1528349187549744</v>
       </c>
       <c r="L734">
-        <v>0.2553693313869765</v>
+        <v>0.2553693313869763</v>
       </c>
       <c r="M734">
-        <v>0.22342762752063</v>
+        <v>0.2234276275206287</v>
       </c>
       <c r="N734">
         <v>0.5</v>
@@ -32748,10 +32748,10 @@
         <v>-0.1644888069239767</v>
       </c>
       <c r="L735">
-        <v>0.2650948998935578</v>
+        <v>0.2650948998935577</v>
       </c>
       <c r="M735">
-        <v>0.4153437200472912</v>
+        <v>0.41534372004729</v>
       </c>
       <c r="N735">
         <v>0.5</v>
@@ -32792,7 +32792,7 @@
         <v>-0.1658771223228587</v>
       </c>
       <c r="L736">
-        <v>0.1917848903601796</v>
+        <v>0.1917848903601794</v>
       </c>
       <c r="M736">
         <v>0</v>
@@ -32836,7 +32836,7 @@
         <v>-0.1820788737278793</v>
       </c>
       <c r="L737">
-        <v>-0.09272130084048197</v>
+        <v>-0.09272130084048202</v>
       </c>
       <c r="M737">
         <v>0</v>
@@ -32880,7 +32880,7 @@
         <v>0.0007986236986108739</v>
       </c>
       <c r="L738">
-        <v>0.1197908020668964</v>
+        <v>0.1197908020668962</v>
       </c>
       <c r="M738">
         <v>0</v>
@@ -32924,7 +32924,7 @@
         <v>-0.144182617710376</v>
       </c>
       <c r="L739">
-        <v>-0.4860473140055025</v>
+        <v>-0.4860473140055027</v>
       </c>
       <c r="M739">
         <v>1</v>
@@ -32968,7 +32968,7 @@
         <v>0.009530804918029791</v>
       </c>
       <c r="L740">
-        <v>0.02964168636982121</v>
+        <v>0.02964168636982092</v>
       </c>
       <c r="M740">
         <v>0</v>
@@ -33012,7 +33012,7 @@
         <v>0.0835587536624658</v>
       </c>
       <c r="L741">
-        <v>0.3859109561592588</v>
+        <v>0.3859109561592587</v>
       </c>
       <c r="M741">
         <v>1</v>
@@ -33056,10 +33056,10 @@
         <v>-0.07657110848050842</v>
       </c>
       <c r="L742">
-        <v>0.2988165304509157</v>
+        <v>0.2988165304509159</v>
       </c>
       <c r="M742">
-        <v>0.755537642188961</v>
+        <v>0.7555376421889618</v>
       </c>
       <c r="N742">
         <v>0.5</v>
@@ -33100,10 +33100,10 @@
         <v>-0.1868687869828049</v>
       </c>
       <c r="L743">
-        <v>-0.181628712805948</v>
+        <v>-0.1816287128059476</v>
       </c>
       <c r="M743">
-        <v>0.2260399998719758</v>
+        <v>0.2260399998719747</v>
       </c>
       <c r="N743">
         <v>0.5</v>
@@ -33144,10 +33144,10 @@
         <v>-0.1181994877644447</v>
       </c>
       <c r="L744">
-        <v>-0.3330940784981934</v>
+        <v>-0.3330940784981935</v>
       </c>
       <c r="M744">
-        <v>0.6111286048015916</v>
+        <v>0.6111286048015915</v>
       </c>
       <c r="N744">
         <v>0.5</v>
@@ -33188,7 +33188,7 @@
         <v>-0.1173698551805371</v>
       </c>
       <c r="L745">
-        <v>-0.5045387356824388</v>
+        <v>-0.504538735682439</v>
       </c>
       <c r="M745">
         <v>1</v>
@@ -33232,7 +33232,7 @@
         <v>-0.007462435325933728</v>
       </c>
       <c r="L746">
-        <v>-0.04161743291692589</v>
+        <v>-0.04161743291692553</v>
       </c>
       <c r="M746">
         <v>0</v>
@@ -33276,10 +33276,10 @@
         <v>-0.04261674446791199</v>
       </c>
       <c r="L747">
-        <v>-0.3483237631962652</v>
+        <v>-0.3483237631962653</v>
       </c>
       <c r="M747">
-        <v>0.662545293221681</v>
+        <v>0.6625452932216812</v>
       </c>
       <c r="N747">
         <v>0.5</v>
@@ -33320,7 +33320,7 @@
         <v>-0.1895034500020266</v>
       </c>
       <c r="L748">
-        <v>-0.741414800710873</v>
+        <v>-0.7414148007108725</v>
       </c>
       <c r="M748">
         <v>1</v>
@@ -33364,10 +33364,10 @@
         <v>-0.1642192098520621</v>
       </c>
       <c r="L749">
-        <v>-0.5350327172140071</v>
+        <v>-0.5350327172140069</v>
       </c>
       <c r="M749">
-        <v>0.7050830811961066</v>
+        <v>0.7050830811961069</v>
       </c>
       <c r="N749">
         <v>0.5</v>
@@ -33496,10 +33496,10 @@
         <v>-0.3674382930292994</v>
       </c>
       <c r="L752">
-        <v>-0.5486096506691847</v>
+        <v>-0.5486096506691844</v>
       </c>
       <c r="M752">
-        <v>0.5897885432665108</v>
+        <v>0.5897885432665106</v>
       </c>
       <c r="N752">
         <v>0.5</v>
@@ -33540,10 +33540,10 @@
         <v>-0.3701904843343121</v>
       </c>
       <c r="L753">
-        <v>-0.5330975575381447</v>
+        <v>-0.533097557538144</v>
       </c>
       <c r="M753">
-        <v>0.5717431877552728</v>
+        <v>0.5717431877552721</v>
       </c>
       <c r="N753">
         <v>0.5</v>
@@ -33584,10 +33584,10 @@
         <v>-0.3396879420823369</v>
       </c>
       <c r="L754">
-        <v>-0.6960826148853643</v>
+        <v>-0.6960826148853639</v>
       </c>
       <c r="M754">
-        <v>0.7613451504307582</v>
+        <v>0.7613451504307579</v>
       </c>
       <c r="N754">
         <v>0.5</v>
@@ -33628,7 +33628,7 @@
         <v>-0.2696571693945362</v>
       </c>
       <c r="L755">
-        <v>-0.3120191334987347</v>
+        <v>-0.3120191334987344</v>
       </c>
       <c r="M755">
         <v>0.3145606963948742</v>
@@ -33672,7 +33672,7 @@
         <v>-0.1701481480267567</v>
       </c>
       <c r="L756">
-        <v>0.1063053074199874</v>
+        <v>0.1063053074199872</v>
       </c>
       <c r="M756">
         <v>1</v>
@@ -33716,7 +33716,7 @@
         <v>-0.1933071874616087</v>
       </c>
       <c r="L757">
-        <v>0.0311804871455323</v>
+        <v>0.03118048714553239</v>
       </c>
       <c r="M757">
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>-0.09374789874989901</v>
       </c>
       <c r="L758">
-        <v>0.1967292931109521</v>
+        <v>0.1967292931109518</v>
       </c>
       <c r="M758">
         <v>1</v>
@@ -33804,7 +33804,7 @@
         <v>-0.1189116013318987</v>
       </c>
       <c r="L759">
-        <v>0.2886922501653194</v>
+        <v>0.2886922501653189</v>
       </c>
       <c r="M759">
         <v>1</v>
@@ -33842,13 +33842,13 @@
         <v>1</v>
       </c>
       <c r="J760">
-        <v>-9.278395957555058e-05</v>
+        <v>-9.278395957555058E-05</v>
       </c>
       <c r="K760">
         <v>-0.306721019775799</v>
       </c>
       <c r="L760">
-        <v>0.01554805191548335</v>
+        <v>0.0155480519154832</v>
       </c>
       <c r="M760">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>-0.3146932863834168</v>
       </c>
       <c r="L761">
-        <v>-0.05153714791127658</v>
+        <v>-0.05153714791127664</v>
       </c>
       <c r="M761">
         <v>0</v>
@@ -33936,10 +33936,10 @@
         <v>-0.3574539497975023</v>
       </c>
       <c r="L762">
-        <v>-0.2022475482299419</v>
+        <v>-0.2022475482299418</v>
       </c>
       <c r="M762">
-        <v>0.2338243119235594</v>
+        <v>0.2338243119235593</v>
       </c>
       <c r="N762">
         <v>0.5</v>
@@ -33980,7 +33980,7 @@
         <v>-0.3334470319495611</v>
       </c>
       <c r="L763">
-        <v>-0.3505791236329906</v>
+        <v>-0.3505791236329905</v>
       </c>
       <c r="M763">
         <v>0.4639579223566804</v>
@@ -34024,10 +34024,10 @@
         <v>-0.3325822792297206</v>
       </c>
       <c r="L764">
-        <v>-0.3097791388872573</v>
+        <v>-0.309779138887257</v>
       </c>
       <c r="M764">
-        <v>0.8635643553141134</v>
+        <v>0.8635643553141126</v>
       </c>
       <c r="N764">
         <v>0.5</v>
@@ -34068,7 +34068,7 @@
         <v>-0.315009722616972</v>
       </c>
       <c r="L765">
-        <v>-0.4522009409831931</v>
+        <v>-0.4522009409831932</v>
       </c>
       <c r="M765">
         <v>1</v>
@@ -34112,7 +34112,7 @@
         <v>-0.3199947624022952</v>
       </c>
       <c r="L766">
-        <v>-0.4986369417435709</v>
+        <v>-0.4986369417435715</v>
       </c>
       <c r="M766">
         <v>1</v>
@@ -34156,7 +34156,7 @@
         <v>-0.3244685024187047</v>
       </c>
       <c r="L767">
-        <v>-0.6121406348462083</v>
+        <v>-0.6121406348462086</v>
       </c>
       <c r="M767">
         <v>1</v>
@@ -34247,7 +34247,7 @@
         <v>-0.2438116297234452</v>
       </c>
       <c r="M769">
-        <v>0.3209579584244631</v>
+        <v>0.3209579584244628</v>
       </c>
       <c r="N769">
         <v>0.5</v>
@@ -34288,10 +34288,10 @@
         <v>-0.1999938879460464</v>
       </c>
       <c r="L770">
-        <v>-0.3654485091252339</v>
+        <v>-0.3654485091252342</v>
       </c>
       <c r="M770">
-        <v>0.5240027104579591</v>
+        <v>0.5240027104579595</v>
       </c>
       <c r="N770">
         <v>0.5</v>
@@ -34332,10 +34332,10 @@
         <v>-0.1881263794376869</v>
       </c>
       <c r="L771">
-        <v>-0.4783625187924503</v>
+        <v>-0.4783625187924509</v>
       </c>
       <c r="M771">
-        <v>0.6158414563217306</v>
+        <v>0.615841456321732</v>
       </c>
       <c r="N771">
         <v>0.5</v>
@@ -34376,7 +34376,7 @@
         <v>-0.2543031700500011</v>
       </c>
       <c r="L772">
-        <v>-1.366957268203929</v>
+        <v>-1.366957268203928</v>
       </c>
       <c r="M772">
         <v>1</v>
@@ -34423,7 +34423,7 @@
         <v>-1.174161905565154</v>
       </c>
       <c r="M773">
-        <v>0.8283433990808083</v>
+        <v>0.8283433990808092</v>
       </c>
       <c r="N773">
         <v>0.5</v>
@@ -34464,7 +34464,7 @@
         <v>-0.4317730736087073</v>
       </c>
       <c r="L774">
-        <v>-1.602504608789154</v>
+        <v>-1.602504608789155</v>
       </c>
       <c r="M774">
         <v>1</v>
@@ -34508,7 +34508,7 @@
         <v>-0.4375288046413892</v>
       </c>
       <c r="L775">
-        <v>-1.765083993038932</v>
+        <v>-1.765083993038931</v>
       </c>
       <c r="M775">
         <v>1</v>
@@ -34687,7 +34687,7 @@
         <v>-1.283160487532955</v>
       </c>
       <c r="M779">
-        <v>0.4294989320022777</v>
+        <v>0.4294989320022782</v>
       </c>
       <c r="N779">
         <v>0.5</v>
@@ -34731,7 +34731,7 @@
         <v>-0.7144325304853341</v>
       </c>
       <c r="M780">
-        <v>0.1166474990205777</v>
+        <v>0.1166474990205775</v>
       </c>
       <c r="N780">
         <v>0.5</v>
@@ -34772,7 +34772,7 @@
         <v>-0.3228558045394017</v>
       </c>
       <c r="L781">
-        <v>-0.5900338580379872</v>
+        <v>-0.5900338580379865</v>
       </c>
       <c r="M781">
         <v>0</v>
@@ -34816,7 +34816,7 @@
         <v>-0.05479704527271014</v>
       </c>
       <c r="L782">
-        <v>-0.2214371477554724</v>
+        <v>-0.2214371477554722</v>
       </c>
       <c r="M782">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>0.0925393008637817</v>
       </c>
       <c r="L783">
-        <v>0.6466163651647703</v>
+        <v>0.6466163651647704</v>
       </c>
       <c r="M783">
         <v>1</v>
@@ -34904,7 +34904,7 @@
         <v>0.05047615587882594</v>
       </c>
       <c r="L784">
-        <v>0.7570434103683578</v>
+        <v>0.7570434103683582</v>
       </c>
       <c r="M784">
         <v>1</v>
@@ -35036,10 +35036,10 @@
         <v>0.07128752922563315</v>
       </c>
       <c r="L787">
-        <v>0.9239325167230159</v>
+        <v>0.9239325167230156</v>
       </c>
       <c r="M787">
-        <v>0.6114499236723874</v>
+        <v>0.6114499236723865</v>
       </c>
       <c r="N787">
         <v>0.5</v>
@@ -35083,7 +35083,7 @@
         <v>0.8970951128850776</v>
       </c>
       <c r="M788">
-        <v>0.5522765634621516</v>
+        <v>0.5522765634621515</v>
       </c>
       <c r="N788">
         <v>0.5</v>
@@ -35124,7 +35124,7 @@
         <v>-0.01610257104176662</v>
       </c>
       <c r="L789">
-        <v>0.3556505413316125</v>
+        <v>0.3556505413316127</v>
       </c>
       <c r="M789">
         <v>0</v>
@@ -35344,7 +35344,7 @@
         <v>0.1531689520360535</v>
       </c>
       <c r="L794">
-        <v>1.584474850855331</v>
+        <v>1.58447485085533</v>
       </c>
       <c r="M794">
         <v>1</v>
@@ -35388,10 +35388,10 @@
         <v>0.1227267576936488</v>
       </c>
       <c r="L795">
-        <v>1.567453995772701</v>
+        <v>1.5674539957727</v>
       </c>
       <c r="M795">
-        <v>0.9861486666965215</v>
+        <v>0.9861486666965213</v>
       </c>
       <c r="N795">
         <v>0.5</v>
@@ -35435,7 +35435,7 @@
         <v>1.552532154098698</v>
       </c>
       <c r="M796">
-        <v>0.9740054810854015</v>
+        <v>0.9740054810854022</v>
       </c>
       <c r="N796">
         <v>0.5</v>
@@ -35479,7 +35479,7 @@
         <v>1.504146641718921</v>
       </c>
       <c r="M797">
-        <v>0.9346300292777051</v>
+        <v>0.9346300292777058</v>
       </c>
       <c r="N797">
         <v>0.5</v>
@@ -35523,7 +35523,7 @@
         <v>1.388479993159816</v>
       </c>
       <c r="M798">
-        <v>0.8405021318535922</v>
+        <v>0.8405021318535925</v>
       </c>
       <c r="N798">
         <v>0.5</v>
@@ -35567,7 +35567,7 @@
         <v>1.483701546942259</v>
       </c>
       <c r="M799">
-        <v>0.816580610064605</v>
+        <v>0.8165806100646057</v>
       </c>
       <c r="N799">
         <v>0.5</v>
@@ -35611,7 +35611,7 @@
         <v>1.563203894893713</v>
       </c>
       <c r="M800">
-        <v>0.9425276423615695</v>
+        <v>0.9425276423615688</v>
       </c>
       <c r="N800">
         <v>0.5</v>
@@ -35699,7 +35699,7 @@
         <v>1.315775309206889</v>
       </c>
       <c r="M802">
-        <v>0.3271945023559967</v>
+        <v>0.3271945023559963</v>
       </c>
       <c r="N802">
         <v>0.5</v>
@@ -35740,7 +35740,7 @@
         <v>-0.09014829182246734</v>
       </c>
       <c r="L803">
-        <v>0.9303468776917267</v>
+        <v>0.9303468776917272</v>
       </c>
       <c r="M803">
         <v>0</v>
@@ -35784,10 +35784,10 @@
         <v>0.3048356959214664</v>
       </c>
       <c r="L804">
-        <v>1.559088202496285</v>
+        <v>1.559088202496286</v>
       </c>
       <c r="M804">
-        <v>0.9868690946326044</v>
+        <v>0.9868690946326057</v>
       </c>
       <c r="N804">
         <v>0.5</v>
@@ -35828,7 +35828,7 @@
         <v>-0.197952505039433</v>
       </c>
       <c r="L805">
-        <v>0.2497362242258298</v>
+        <v>0.2497362242258296</v>
       </c>
       <c r="M805">
         <v>0</v>
@@ -35872,10 +35872,10 @@
         <v>-0.1858532133547792</v>
       </c>
       <c r="L806">
-        <v>0.3015799794433091</v>
+        <v>0.301579979443309</v>
       </c>
       <c r="M806">
-        <v>0.03947090314839444</v>
+        <v>0.03947090314839451</v>
       </c>
       <c r="N806">
         <v>0.5</v>
@@ -35916,10 +35916,10 @@
         <v>-0.007864898567270105</v>
       </c>
       <c r="L807">
-        <v>0.5964713713240106</v>
+        <v>0.5964713713240108</v>
       </c>
       <c r="M807">
-        <v>0.2639845310557739</v>
+        <v>0.2639845310557742</v>
       </c>
       <c r="N807">
         <v>0.5</v>
@@ -35963,7 +35963,7 @@
         <v>0.7922885805160857</v>
       </c>
       <c r="M808">
-        <v>0.4130686795011667</v>
+        <v>0.4130686795011669</v>
       </c>
       <c r="N808">
         <v>0.5</v>
@@ -36004,10 +36004,10 @@
         <v>0.02280940429096646</v>
       </c>
       <c r="L809">
-        <v>0.8716253030783925</v>
+        <v>0.8716253030783927</v>
       </c>
       <c r="M809">
-        <v>0.4734711730943016</v>
+        <v>0.4734711730943021</v>
       </c>
       <c r="N809">
         <v>0.5</v>
@@ -36051,7 +36051,7 @@
         <v>1.402610568164452</v>
       </c>
       <c r="M810">
-        <v>0.8804923069360405</v>
+        <v>0.8804923069360404</v>
       </c>
       <c r="N810">
         <v>0.5</v>
@@ -36180,10 +36180,10 @@
         <v>-0.3394008761728517</v>
       </c>
       <c r="L813">
-        <v>0.6465743477572043</v>
+        <v>0.6465743477572041</v>
       </c>
       <c r="M813">
-        <v>0.2452471799136749</v>
+        <v>0.2452471799136748</v>
       </c>
       <c r="N813">
         <v>0.5</v>
@@ -36224,7 +36224,7 @@
         <v>-0.4096722896305635</v>
       </c>
       <c r="L814">
-        <v>-0.3444636049476485</v>
+        <v>-0.3444636049476487</v>
       </c>
       <c r="M814">
         <v>1</v>
@@ -36268,7 +36268,7 @@
         <v>-0.4196825275254047</v>
       </c>
       <c r="L815">
-        <v>-0.5404603062761112</v>
+        <v>-0.5404603062761115</v>
       </c>
       <c r="M815">
         <v>1</v>
@@ -36312,10 +36312,10 @@
         <v>-0.2747282931538059</v>
       </c>
       <c r="L816">
-        <v>-0.3454763609993854</v>
+        <v>-0.3454763609993858</v>
       </c>
       <c r="M816">
-        <v>0.005167209676859106</v>
+        <v>0.005167209676859951</v>
       </c>
       <c r="N816">
         <v>0.5</v>
@@ -36400,7 +36400,7 @@
         <v>-0.3769678385002136</v>
       </c>
       <c r="L818">
-        <v>-0.8164268290476785</v>
+        <v>-0.8164268290476787</v>
       </c>
       <c r="M818">
         <v>1</v>
@@ -36444,10 +36444,10 @@
         <v>-0.3889255705507674</v>
       </c>
       <c r="L819">
-        <v>-0.7945527744114552</v>
+        <v>-0.7945527744114547</v>
       </c>
       <c r="M819">
-        <v>0.9536530527819532</v>
+        <v>0.9536530527819516</v>
       </c>
       <c r="N819">
         <v>0.5</v>
